--- a/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9738035172681545</v>
+        <v>1.032152864356461</v>
       </c>
       <c r="D2">
-        <v>0.9975537714284172</v>
+        <v>1.048682523287769</v>
       </c>
       <c r="E2">
-        <v>0.981397311153963</v>
+        <v>1.041808735114257</v>
       </c>
       <c r="F2">
-        <v>0.9700611319943643</v>
+        <v>1.052442658888475</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035276602361552</v>
+        <v>1.061233143641618</v>
       </c>
       <c r="J2">
-        <v>0.9967970247134034</v>
+        <v>1.053412649105597</v>
       </c>
       <c r="K2">
-        <v>1.009047291632599</v>
+        <v>1.059502870919373</v>
       </c>
       <c r="L2">
-        <v>0.9931220423206849</v>
+        <v>1.052714787639258</v>
       </c>
       <c r="M2">
-        <v>0.9819539442831187</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.063216713015745</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9845912058136067</v>
+        <v>1.041654490181769</v>
       </c>
       <c r="D3">
-        <v>1.005885114414257</v>
+        <v>1.056323301946299</v>
       </c>
       <c r="E3">
-        <v>0.9909848722058432</v>
+        <v>1.05016505471919</v>
       </c>
       <c r="F3">
-        <v>0.9818953961061304</v>
+        <v>1.060972576031392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038998826994297</v>
+        <v>1.064635859077518</v>
       </c>
       <c r="J3">
-        <v>1.005510929777673</v>
+        <v>1.061070611855411</v>
       </c>
       <c r="K3">
-        <v>1.016443243858047</v>
+        <v>1.066282877616926</v>
       </c>
       <c r="L3">
-        <v>1.001734417835555</v>
+        <v>1.060193910285555</v>
       </c>
       <c r="M3">
-        <v>0.9927652926005975</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.070880502730621</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9912603069427383</v>
+        <v>1.047581788846828</v>
       </c>
       <c r="D4">
-        <v>1.011038523706363</v>
+        <v>1.061091573127846</v>
       </c>
       <c r="E4">
-        <v>0.9969133983631847</v>
+        <v>1.055379735834626</v>
       </c>
       <c r="F4">
-        <v>0.9892171057875611</v>
+        <v>1.066298503618891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041281236541761</v>
+        <v>1.066742176775318</v>
       </c>
       <c r="J4">
-        <v>1.010890248252219</v>
+        <v>1.065841979680185</v>
       </c>
       <c r="K4">
-        <v>1.021005524298908</v>
+        <v>1.070504616776517</v>
       </c>
       <c r="L4">
-        <v>1.007049219254183</v>
+        <v>1.064852744105716</v>
       </c>
       <c r="M4">
-        <v>0.9994474369119372</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.075657566240763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9939957282005256</v>
+        <v>1.050024375556621</v>
       </c>
       <c r="D5">
-        <v>1.01315271961464</v>
+        <v>1.063056830467558</v>
       </c>
       <c r="E5">
-        <v>0.9993452761181254</v>
+        <v>1.057529001985676</v>
       </c>
       <c r="F5">
-        <v>0.9922216432811051</v>
+        <v>1.068494303369698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042212800738946</v>
+        <v>1.067606171732068</v>
       </c>
       <c r="J5">
-        <v>1.013094706475532</v>
+        <v>1.067806748024025</v>
       </c>
       <c r="K5">
-        <v>1.02287426688421</v>
+        <v>1.07224239888158</v>
       </c>
       <c r="L5">
-        <v>1.00922681075097</v>
+        <v>1.066770901256664</v>
       </c>
       <c r="M5">
-        <v>1.002187879150357</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.077625153178606</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9944511800906461</v>
+        <v>1.050431707047805</v>
       </c>
       <c r="D6">
-        <v>1.013504757154851</v>
+        <v>1.063384574997685</v>
       </c>
       <c r="E6">
-        <v>0.9997501970641053</v>
+        <v>1.057887436080084</v>
       </c>
       <c r="F6">
-        <v>0.9927219907575666</v>
+        <v>1.068860537590028</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042367634200083</v>
+        <v>1.067750016197198</v>
       </c>
       <c r="J6">
-        <v>1.013461635651441</v>
+        <v>1.068134308922617</v>
       </c>
       <c r="K6">
-        <v>1.023185262294542</v>
+        <v>1.072532077600274</v>
       </c>
       <c r="L6">
-        <v>1.009589243230669</v>
+        <v>1.067090675118684</v>
       </c>
       <c r="M6">
-        <v>1.002644149041708</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.077953211221317</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9912971183999965</v>
+        <v>1.047614615813462</v>
       </c>
       <c r="D7">
-        <v>1.01106697360629</v>
+        <v>1.061117984063379</v>
       </c>
       <c r="E7">
-        <v>0.9969461242294565</v>
+        <v>1.055408619508209</v>
       </c>
       <c r="F7">
-        <v>0.9892575329947357</v>
+        <v>1.066328009966817</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041293791286627</v>
+        <v>1.066753804317724</v>
       </c>
       <c r="J7">
-        <v>1.01091992217881</v>
+        <v>1.065868390958445</v>
       </c>
       <c r="K7">
-        <v>1.021030682826761</v>
+        <v>1.070527979457782</v>
       </c>
       <c r="L7">
-        <v>1.00707853321079</v>
+        <v>1.064878529900125</v>
       </c>
       <c r="M7">
-        <v>0.9994843171811856</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.075684013559726</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9775177604993859</v>
+        <v>1.035412033845197</v>
       </c>
       <c r="D8">
-        <v>1.000421524678412</v>
+        <v>1.051302928353364</v>
       </c>
       <c r="E8">
-        <v>0.9846979800521366</v>
+        <v>1.04467459418468</v>
       </c>
       <c r="F8">
-        <v>0.9741345852311912</v>
+        <v>1.055367425976867</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036562104098548</v>
+        <v>1.062403736406661</v>
       </c>
       <c r="J8">
-        <v>0.9997988516612688</v>
+        <v>1.056040606043202</v>
       </c>
       <c r="K8">
-        <v>1.011595789170201</v>
+        <v>1.061830075620912</v>
       </c>
       <c r="L8">
-        <v>0.9960892955542768</v>
+        <v>1.055281603082594</v>
       </c>
       <c r="M8">
-        <v>0.9856767057952689</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.065846216836423</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9505159694153806</v>
+        <v>1.012030599225429</v>
       </c>
       <c r="D9">
-        <v>0.9795979993669343</v>
+        <v>1.032518571649347</v>
       </c>
       <c r="E9">
-        <v>0.9607147836725402</v>
+        <v>1.024127790001715</v>
       </c>
       <c r="F9">
-        <v>0.9445413146865597</v>
+        <v>1.034411840857572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027138208688617</v>
+        <v>1.053937554895172</v>
       </c>
       <c r="J9">
-        <v>0.9779458637911645</v>
+        <v>1.037165563440302</v>
       </c>
       <c r="K9">
-        <v>0.9930309912784647</v>
+        <v>1.045105204151128</v>
       </c>
       <c r="L9">
-        <v>0.9744791041942329</v>
+        <v>1.036841174275711</v>
       </c>
       <c r="M9">
-        <v>0.9586031764130358</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.046970235061262</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.930093978022338</v>
+        <v>0.994871105074883</v>
       </c>
       <c r="D10">
-        <v>0.9638974980722553</v>
+        <v>1.01876052666867</v>
       </c>
       <c r="E10">
-        <v>0.9426002320300582</v>
+        <v>1.009072096102442</v>
       </c>
       <c r="F10">
-        <v>0.9221774136590842</v>
+        <v>1.019075148169632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019915206645378</v>
+        <v>1.047640523564949</v>
       </c>
       <c r="J10">
-        <v>0.9613846003343023</v>
+        <v>1.023289702792296</v>
       </c>
       <c r="K10">
-        <v>0.9789506938122617</v>
+        <v>1.032799118915529</v>
       </c>
       <c r="L10">
-        <v>0.9580894193796183</v>
+        <v>1.023279460456997</v>
       </c>
       <c r="M10">
-        <v>0.9381099009376858</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.033108329270743</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9204948023133304</v>
+        <v>0.9869814751780094</v>
       </c>
       <c r="D11">
-        <v>0.9565360653866239</v>
+        <v>1.012444798611859</v>
       </c>
       <c r="E11">
-        <v>0.9340951031521855</v>
+        <v>1.002157928231922</v>
       </c>
       <c r="F11">
-        <v>0.9116663600017324</v>
+        <v>1.012036728298572</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016500109909177</v>
+        <v>1.044726995426639</v>
       </c>
       <c r="J11">
-        <v>0.9535946788461044</v>
+        <v>1.016906051138952</v>
       </c>
       <c r="K11">
-        <v>0.9723269893375071</v>
+        <v>1.027135779385869</v>
       </c>
       <c r="L11">
-        <v>0.9503769562386482</v>
+        <v>1.017039263605953</v>
       </c>
       <c r="M11">
-        <v>0.9284713445010017</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.026735164295668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9167947145926891</v>
+        <v>0.9839727966688818</v>
       </c>
       <c r="D12">
-        <v>0.9537020531683778</v>
+        <v>1.010038165628232</v>
       </c>
       <c r="E12">
-        <v>0.9308185522024433</v>
+        <v>0.9995227331684149</v>
       </c>
       <c r="F12">
-        <v>0.9076145138799602</v>
+        <v>1.009354934737783</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015181033788714</v>
+        <v>1.043613358897286</v>
       </c>
       <c r="J12">
-        <v>0.9505914477718403</v>
+        <v>1.014471293508863</v>
       </c>
       <c r="K12">
-        <v>0.9697734556441364</v>
+        <v>1.024975544419795</v>
       </c>
       <c r="L12">
-        <v>0.9474030742269129</v>
+        <v>1.014659082573074</v>
       </c>
       <c r="M12">
-        <v>0.9247549832995187</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.024305077093689</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.917594884096537</v>
+        <v>0.9846218685150597</v>
       </c>
       <c r="D13">
-        <v>0.9543147557915123</v>
+        <v>1.010557266979997</v>
       </c>
       <c r="E13">
-        <v>0.9315270391601597</v>
+        <v>1.000091160064088</v>
       </c>
       <c r="F13">
-        <v>0.9084907733229</v>
+        <v>1.009933378395215</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015466408765706</v>
+        <v>1.043853720291194</v>
       </c>
       <c r="J13">
-        <v>0.9512409360861163</v>
+        <v>1.014996565197497</v>
       </c>
       <c r="K13">
-        <v>0.9703256832803089</v>
+        <v>1.025441599011623</v>
       </c>
       <c r="L13">
-        <v>0.9480462389323167</v>
+        <v>1.015172585756999</v>
       </c>
       <c r="M13">
-        <v>0.9255587253265102</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.024829309887967</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9201918382043517</v>
+        <v>0.9867344292610365</v>
       </c>
       <c r="D14">
-        <v>0.956303940000458</v>
+        <v>1.01224714783054</v>
       </c>
       <c r="E14">
-        <v>0.9338267788478113</v>
+        <v>1.001941517518594</v>
       </c>
       <c r="F14">
-        <v>0.9113346019327406</v>
+        <v>1.011816475208103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016392155961762</v>
+        <v>1.0446356044964</v>
       </c>
       <c r="J14">
-        <v>0.9533487824845168</v>
+        <v>1.016706136934905</v>
       </c>
       <c r="K14">
-        <v>0.9721179098769159</v>
+        <v>1.026958409567103</v>
       </c>
       <c r="L14">
-        <v>0.9501334733898024</v>
+        <v>1.016843833238472</v>
       </c>
       <c r="M14">
-        <v>0.9281670713840796</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.026535619628307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9217733565348298</v>
+        <v>0.9880253947788278</v>
       </c>
       <c r="D15">
-        <v>0.9575158162097736</v>
+        <v>1.013280070567713</v>
       </c>
       <c r="E15">
-        <v>0.9352275484966508</v>
+        <v>1.003072457688956</v>
       </c>
       <c r="F15">
-        <v>0.9130664156310813</v>
+        <v>1.012967526181984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016955585087645</v>
+        <v>1.045113074604521</v>
       </c>
       <c r="J15">
-        <v>0.9546323787766035</v>
+        <v>1.017750796423622</v>
       </c>
       <c r="K15">
-        <v>0.9732093242256036</v>
+        <v>1.027885254519348</v>
       </c>
       <c r="L15">
-        <v>0.9514044501252293</v>
+        <v>1.017865056831467</v>
       </c>
       <c r="M15">
-        <v>0.929755377418641</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.027578375641537</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9307134519920668</v>
+        <v>0.9953842958088406</v>
       </c>
       <c r="D16">
-        <v>0.96437299476477</v>
+        <v>1.019171573642596</v>
       </c>
       <c r="E16">
-        <v>0.9431493265167795</v>
+        <v>1.009522025929807</v>
       </c>
       <c r="F16">
-        <v>0.922855722452216</v>
+        <v>1.019533265119364</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020135213778826</v>
+        <v>1.047829675756321</v>
       </c>
       <c r="J16">
-        <v>0.9618872266980675</v>
+        <v>1.02370487275925</v>
       </c>
       <c r="K16">
-        <v>0.9793780731151602</v>
+        <v>1.033167409753185</v>
       </c>
       <c r="L16">
-        <v>0.9585869797804369</v>
+        <v>1.023685280443315</v>
       </c>
       <c r="M16">
-        <v>0.9387317805990119</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.033522905554617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9361057802445581</v>
+        <v>0.9998714254222844</v>
       </c>
       <c r="D17">
-        <v>0.9685141533435278</v>
+        <v>1.022766751086356</v>
       </c>
       <c r="E17">
-        <v>0.9479301048791364</v>
+        <v>1.013456968992226</v>
       </c>
       <c r="F17">
-        <v>0.9287602540605998</v>
+        <v>1.023540350648951</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022048128422201</v>
+        <v>1.049481519494908</v>
       </c>
       <c r="J17">
-        <v>0.9662618572099826</v>
+        <v>1.027334545458419</v>
       </c>
       <c r="K17">
-        <v>0.9830977233347601</v>
+        <v>1.03638703453397</v>
       </c>
       <c r="L17">
-        <v>0.9629171569919259</v>
+        <v>1.02723309233294</v>
       </c>
       <c r="M17">
-        <v>0.9441443823357316</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.037147848691158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9391797251601146</v>
+        <v>1.002445056795921</v>
       </c>
       <c r="D18">
-        <v>0.9708764965778849</v>
+        <v>1.024829699175426</v>
       </c>
       <c r="E18">
-        <v>0.9506562681825773</v>
+        <v>1.015714630173442</v>
       </c>
       <c r="F18">
-        <v>0.9321262976416651</v>
+        <v>1.025839847044948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023136746393778</v>
+        <v>1.050427237124527</v>
       </c>
       <c r="J18">
-        <v>0.9687551341449351</v>
+        <v>1.029416010006624</v>
       </c>
       <c r="K18">
-        <v>0.9852176170628549</v>
+        <v>1.038233174777308</v>
       </c>
       <c r="L18">
-        <v>0.9653848020430114</v>
+        <v>1.029267511938448</v>
       </c>
       <c r="M18">
-        <v>0.9472293610824677</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.039226974983128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9402163121595708</v>
+        <v>1.003315446513404</v>
       </c>
       <c r="D19">
-        <v>0.9716733783385295</v>
+        <v>1.025527522287531</v>
       </c>
       <c r="E19">
-        <v>0.95157570918593</v>
+        <v>1.016478278912842</v>
       </c>
       <c r="F19">
-        <v>0.9332614142714356</v>
+        <v>1.026617720695427</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023503524378561</v>
+        <v>1.050746779408226</v>
       </c>
       <c r="J19">
-        <v>0.969595814568132</v>
+        <v>1.030119884300175</v>
       </c>
       <c r="K19">
-        <v>0.9859323811825451</v>
+        <v>1.03885743875922</v>
       </c>
       <c r="L19">
-        <v>0.9662167904024851</v>
+        <v>1.029955459615855</v>
       </c>
       <c r="M19">
-        <v>0.948269585305643</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.03993012040669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9355347434604836</v>
+        <v>0.9993945726182023</v>
       </c>
       <c r="D20">
-        <v>0.9680754372857289</v>
+        <v>1.022384590838012</v>
       </c>
       <c r="E20">
-        <v>0.9474237400726156</v>
+        <v>1.013038718854628</v>
       </c>
       <c r="F20">
-        <v>0.9281349666499983</v>
+        <v>1.023114385963509</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021845746342834</v>
+        <v>1.04930615307783</v>
       </c>
       <c r="J20">
-        <v>0.965798645126296</v>
+        <v>1.026948852441008</v>
       </c>
       <c r="K20">
-        <v>0.9827038719629881</v>
+        <v>1.036044931827252</v>
       </c>
       <c r="L20">
-        <v>0.9624586829674046</v>
+        <v>1.026856108328536</v>
       </c>
       <c r="M20">
-        <v>0.9435712545079068</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.036762618922592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9194310109887073</v>
+        <v>0.9861145709745402</v>
       </c>
       <c r="D21">
-        <v>0.9557210676578536</v>
+        <v>1.011751256827427</v>
       </c>
       <c r="E21">
-        <v>0.9331529726118545</v>
+        <v>1.001398550429266</v>
       </c>
       <c r="F21">
-        <v>0.9105014592191956</v>
+        <v>1.011263880021414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016121011562231</v>
+        <v>1.044406256537749</v>
       </c>
       <c r="J21">
-        <v>0.9527312607641754</v>
+        <v>1.016204530587626</v>
       </c>
       <c r="K21">
-        <v>0.9715928489447346</v>
+        <v>1.026513366447159</v>
       </c>
       <c r="L21">
-        <v>0.9495220044444356</v>
+        <v>1.016353475198132</v>
       </c>
       <c r="M21">
-        <v>0.9274029385562191</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.026034951473418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9085124530979747</v>
+        <v>0.9773070637456684</v>
       </c>
       <c r="D22">
-        <v>0.9473659604850533</v>
+        <v>1.004710117912733</v>
       </c>
       <c r="E22">
-        <v>0.9234882873394303</v>
+        <v>0.9936875624427417</v>
       </c>
       <c r="F22">
-        <v>0.8985438121657986</v>
+        <v>1.003418028232272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012223811669026</v>
+        <v>1.041141543846799</v>
       </c>
       <c r="J22">
-        <v>0.9438684123915083</v>
+        <v>1.00907662633862</v>
       </c>
       <c r="K22">
-        <v>0.9640575469453866</v>
+        <v>1.020188840377883</v>
       </c>
       <c r="L22">
-        <v>0.9407447550108573</v>
+        <v>1.0093851157877</v>
       </c>
       <c r="M22">
-        <v>0.9164339620516162</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.018922076061645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9143844581272025</v>
+        <v>0.9820230054051797</v>
       </c>
       <c r="D23">
-        <v>0.9518570649424506</v>
+        <v>1.00847910197986</v>
       </c>
       <c r="E23">
-        <v>0.9286847656731345</v>
+        <v>0.9978154393011999</v>
       </c>
       <c r="F23">
-        <v>0.904974983159031</v>
+        <v>1.007617669350294</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014321064657072</v>
+        <v>1.042890958135702</v>
       </c>
       <c r="J23">
-        <v>0.9486350177812399</v>
+        <v>1.012893355175879</v>
       </c>
       <c r="K23">
-        <v>0.968110031661344</v>
+        <v>1.023575472493572</v>
       </c>
       <c r="L23">
-        <v>0.9454656153098669</v>
+        <v>1.013116479211771</v>
       </c>
       <c r="M23">
-        <v>0.9223337852536209</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.022730363192319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.935792989252741</v>
+        <v>0.9996101760499244</v>
       </c>
       <c r="D24">
-        <v>0.9682738372650482</v>
+        <v>1.022557377348757</v>
       </c>
       <c r="E24">
-        <v>0.9476527360107487</v>
+        <v>1.013227823487318</v>
       </c>
       <c r="F24">
-        <v>0.9284177463777618</v>
+        <v>1.023306977218888</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021937277468356</v>
+        <v>1.04938544829554</v>
       </c>
       <c r="J24">
-        <v>0.9660081298969101</v>
+        <v>1.02712324018873</v>
       </c>
       <c r="K24">
-        <v>0.9828819890604642</v>
+        <v>1.036199611157245</v>
       </c>
       <c r="L24">
-        <v>0.9626660259026253</v>
+        <v>1.027026558688311</v>
       </c>
       <c r="M24">
-        <v>0.9438304475721184</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.036936796056832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9578723804323133</v>
+        <v>1.018326791631629</v>
       </c>
       <c r="D25">
-        <v>0.9852649397079108</v>
+        <v>1.037573159072595</v>
       </c>
       <c r="E25">
-        <v>0.9672457134300764</v>
+        <v>1.029657444384374</v>
       </c>
       <c r="F25">
-        <v>0.9525998983332495</v>
+        <v>1.040048500869727</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02972221787132</v>
+        <v>1.056231893757701</v>
       </c>
       <c r="J25">
-        <v>0.9839057166253978</v>
+        <v>1.042252744668706</v>
       </c>
       <c r="K25">
-        <v>0.9980963880421952</v>
+        <v>1.049614913292785</v>
       </c>
       <c r="L25">
-        <v>0.9803747100798101</v>
+        <v>1.041812172924732</v>
       </c>
       <c r="M25">
-        <v>0.9659814871783072</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.0520553725238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032152864356461</v>
+        <v>1.002707258698423</v>
       </c>
       <c r="D2">
-        <v>1.048682523287769</v>
+        <v>1.019094831605668</v>
       </c>
       <c r="E2">
-        <v>1.041808735114257</v>
+        <v>1.008299267281788</v>
       </c>
       <c r="F2">
-        <v>1.052442658888475</v>
+        <v>0.9797059344886595</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061233143641618</v>
+        <v>1.041256288218888</v>
       </c>
       <c r="J2">
-        <v>1.053412649105597</v>
+        <v>1.024807296544726</v>
       </c>
       <c r="K2">
-        <v>1.059502870919373</v>
+        <v>1.030294403419654</v>
       </c>
       <c r="L2">
-        <v>1.052714787639258</v>
+        <v>1.019644178427193</v>
       </c>
       <c r="M2">
-        <v>1.063216713015745</v>
+        <v>0.9914554302074908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041654490181769</v>
+        <v>1.009562380905848</v>
       </c>
       <c r="D3">
-        <v>1.056323301946299</v>
+        <v>1.024382551188386</v>
       </c>
       <c r="E3">
-        <v>1.05016505471919</v>
+        <v>1.013984092937472</v>
       </c>
       <c r="F3">
-        <v>1.060972576031392</v>
+        <v>0.9893347499876886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064635859077518</v>
+        <v>1.043754105469834</v>
       </c>
       <c r="J3">
-        <v>1.061070611855411</v>
+        <v>1.0297957172296</v>
       </c>
       <c r="K3">
-        <v>1.066282877616926</v>
+        <v>1.03471267572473</v>
       </c>
       <c r="L3">
-        <v>1.060193910285555</v>
+        <v>1.02444111756562</v>
       </c>
       <c r="M3">
-        <v>1.070880502730621</v>
+        <v>1.00010593839455</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047581788846828</v>
+        <v>1.013862177099309</v>
       </c>
       <c r="D4">
-        <v>1.061091573127846</v>
+        <v>1.027701474996563</v>
       </c>
       <c r="E4">
-        <v>1.055379735834626</v>
+        <v>1.017555356204266</v>
       </c>
       <c r="F4">
-        <v>1.066298503618891</v>
+        <v>0.995362834833811</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066742176775318</v>
+        <v>1.045308812668118</v>
       </c>
       <c r="J4">
-        <v>1.065841979680185</v>
+        <v>1.032917813176152</v>
       </c>
       <c r="K4">
-        <v>1.070504616776517</v>
+        <v>1.037476679549948</v>
       </c>
       <c r="L4">
-        <v>1.064852744105716</v>
+        <v>1.027446421896843</v>
       </c>
       <c r="M4">
-        <v>1.075657566240763</v>
+        <v>1.005517550439881</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050024375556621</v>
+        <v>1.015639114999272</v>
       </c>
       <c r="D5">
-        <v>1.063056830467558</v>
+        <v>1.029073514603685</v>
       </c>
       <c r="E5">
-        <v>1.057529001985676</v>
+        <v>1.019032468076372</v>
       </c>
       <c r="F5">
-        <v>1.068494303369698</v>
+        <v>0.9978517603357252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067606171732068</v>
+        <v>1.045948386833836</v>
       </c>
       <c r="J5">
-        <v>1.067806748024025</v>
+        <v>1.034206391343347</v>
       </c>
       <c r="K5">
-        <v>1.07224239888158</v>
+        <v>1.038617136488154</v>
       </c>
       <c r="L5">
-        <v>1.066770901256664</v>
+        <v>1.028687507972124</v>
       </c>
       <c r="M5">
-        <v>1.077625153178606</v>
+        <v>1.0077509290134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050431707047805</v>
+        <v>1.015935721247077</v>
       </c>
       <c r="D6">
-        <v>1.063384574997685</v>
+        <v>1.029302559839732</v>
       </c>
       <c r="E6">
-        <v>1.057887436080084</v>
+        <v>1.01927909867751</v>
       </c>
       <c r="F6">
-        <v>1.068860537590028</v>
+        <v>0.9982670931366882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067750016197198</v>
+        <v>1.046054971203842</v>
       </c>
       <c r="J6">
-        <v>1.068134308922617</v>
+        <v>1.03442138221708</v>
       </c>
       <c r="K6">
-        <v>1.072532077600274</v>
+        <v>1.038807394386176</v>
       </c>
       <c r="L6">
-        <v>1.067090675118684</v>
+        <v>1.028894616366055</v>
       </c>
       <c r="M6">
-        <v>1.077953211221317</v>
+        <v>1.008123557153749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047614615813462</v>
+        <v>1.013886038928425</v>
       </c>
       <c r="D7">
-        <v>1.061117984063379</v>
+        <v>1.027719897894725</v>
       </c>
       <c r="E7">
-        <v>1.055408619508209</v>
+        <v>1.017575186939104</v>
       </c>
       <c r="F7">
-        <v>1.066328009966817</v>
+        <v>0.9953962659362575</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066753804317724</v>
+        <v>1.045317412904817</v>
       </c>
       <c r="J7">
-        <v>1.065868390958445</v>
+        <v>1.032935123617063</v>
       </c>
       <c r="K7">
-        <v>1.070527979457782</v>
+        <v>1.037492001492238</v>
       </c>
       <c r="L7">
-        <v>1.064878529900125</v>
+        <v>1.02746309154996</v>
       </c>
       <c r="M7">
-        <v>1.075684013559726</v>
+        <v>1.005547553124446</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035412033845197</v>
+        <v>1.005053288043844</v>
       </c>
       <c r="D8">
-        <v>1.051302928353364</v>
+        <v>1.020903916594415</v>
       </c>
       <c r="E8">
-        <v>1.04467459418468</v>
+        <v>1.010243570616947</v>
       </c>
       <c r="F8">
-        <v>1.055367425976867</v>
+        <v>0.9830039595047526</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062403736406661</v>
+        <v>1.042113629233002</v>
       </c>
       <c r="J8">
-        <v>1.056040606043202</v>
+        <v>1.026515913798622</v>
       </c>
       <c r="K8">
-        <v>1.061830075620912</v>
+        <v>1.031807984412682</v>
       </c>
       <c r="L8">
-        <v>1.055281603082594</v>
+        <v>1.021286551230192</v>
       </c>
       <c r="M8">
-        <v>1.065846216836423</v>
+        <v>0.9944191833107514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012030599225429</v>
+        <v>0.9883551389547289</v>
       </c>
       <c r="D9">
-        <v>1.032518571649347</v>
+        <v>1.008041218917445</v>
       </c>
       <c r="E9">
-        <v>1.024127790001715</v>
+        <v>0.9964322253632018</v>
       </c>
       <c r="F9">
-        <v>1.034411840857572</v>
+        <v>0.9594554880554396</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053937554895172</v>
+        <v>1.035961089539457</v>
       </c>
       <c r="J9">
-        <v>1.037165563440302</v>
+        <v>1.014325916587993</v>
       </c>
       <c r="K9">
-        <v>1.045105204151128</v>
+        <v>1.021005166383354</v>
       </c>
       <c r="L9">
-        <v>1.036841174275711</v>
+        <v>1.00958345365968</v>
       </c>
       <c r="M9">
-        <v>1.046970235061262</v>
+        <v>0.9732425074986097</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.994871105074883</v>
+        <v>0.9763129583568478</v>
       </c>
       <c r="D10">
-        <v>1.01876052666867</v>
+        <v>0.9987874369123917</v>
       </c>
       <c r="E10">
-        <v>1.009072096102442</v>
+        <v>0.9865116301394447</v>
       </c>
       <c r="F10">
-        <v>1.019075148169632</v>
+        <v>0.9423440473526422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047640523564949</v>
+        <v>1.031461537390935</v>
       </c>
       <c r="J10">
-        <v>1.023289702792296</v>
+        <v>1.005498946150432</v>
       </c>
       <c r="K10">
-        <v>1.032799118915529</v>
+        <v>1.013178619127624</v>
       </c>
       <c r="L10">
-        <v>1.023279460456997</v>
+        <v>1.001128768068885</v>
       </c>
       <c r="M10">
-        <v>1.033108329270743</v>
+        <v>0.9578386380144194</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9869814751780094</v>
+        <v>0.9708431403512995</v>
       </c>
       <c r="D11">
-        <v>1.012444798611859</v>
+        <v>0.9945912232299861</v>
       </c>
       <c r="E11">
-        <v>1.002157928231922</v>
+        <v>0.9820165303436562</v>
       </c>
       <c r="F11">
-        <v>1.012036728298572</v>
+        <v>0.934528024844989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044726995426639</v>
+        <v>1.02940357250533</v>
       </c>
       <c r="J11">
-        <v>1.016906051138952</v>
+        <v>1.001481276602268</v>
       </c>
       <c r="K11">
-        <v>1.027135779385869</v>
+        <v>1.009615867119223</v>
       </c>
       <c r="L11">
-        <v>1.017039263605953</v>
+        <v>0.9972857485660743</v>
       </c>
       <c r="M11">
-        <v>1.026735164295668</v>
+        <v>0.9508001096700559</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9839727966688818</v>
+        <v>0.9687690415493503</v>
       </c>
       <c r="D12">
-        <v>1.010038165628232</v>
+        <v>0.9930012865159884</v>
       </c>
       <c r="E12">
-        <v>0.9995227331684149</v>
+        <v>0.9803138484373737</v>
       </c>
       <c r="F12">
-        <v>1.009354934737783</v>
+        <v>0.9315563678933982</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043613358897286</v>
+        <v>1.028621147196158</v>
       </c>
       <c r="J12">
-        <v>1.014471293508863</v>
+        <v>0.9999565948992202</v>
       </c>
       <c r="K12">
-        <v>1.024975544419795</v>
+        <v>1.008263810481464</v>
       </c>
       <c r="L12">
-        <v>1.014659082573074</v>
+        <v>0.9958281788023862</v>
       </c>
       <c r="M12">
-        <v>1.024305077093689</v>
+        <v>0.948123819779576</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9846218685150597</v>
+        <v>0.9692159304507713</v>
       </c>
       <c r="D13">
-        <v>1.010557266979997</v>
+        <v>0.9933437989593233</v>
       </c>
       <c r="E13">
-        <v>1.000091160064088</v>
+        <v>0.9806806267426739</v>
       </c>
       <c r="F13">
-        <v>1.009933378395215</v>
+        <v>0.9321970268697695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043853720291194</v>
+        <v>1.02878982206996</v>
       </c>
       <c r="J13">
-        <v>1.014996565197497</v>
+        <v>1.000285160331618</v>
       </c>
       <c r="K13">
-        <v>1.025441599011623</v>
+        <v>1.008555175313631</v>
       </c>
       <c r="L13">
-        <v>1.015172585756999</v>
+        <v>0.9961422432602063</v>
       </c>
       <c r="M13">
-        <v>1.024829309887967</v>
+        <v>0.9487008088757076</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9867344292610365</v>
+        <v>0.970672584112281</v>
       </c>
       <c r="D14">
-        <v>1.01224714783054</v>
+        <v>0.9944604545443632</v>
       </c>
       <c r="E14">
-        <v>1.001941517518594</v>
+        <v>0.9818764785733578</v>
       </c>
       <c r="F14">
-        <v>1.011816475208103</v>
+        <v>0.9342838297632954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0446356044964</v>
+        <v>1.029339273999846</v>
       </c>
       <c r="J14">
-        <v>1.016706136934905</v>
+        <v>1.001355924427556</v>
       </c>
       <c r="K14">
-        <v>1.026958409567103</v>
+        <v>1.009504707319703</v>
       </c>
       <c r="L14">
-        <v>1.016843833238472</v>
+        <v>0.997165896813031</v>
       </c>
       <c r="M14">
-        <v>1.026535619628307</v>
+        <v>0.9505801902259062</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880253947788278</v>
+        <v>0.9715643333918909</v>
       </c>
       <c r="D15">
-        <v>1.013280070567713</v>
+        <v>0.9951442262805625</v>
       </c>
       <c r="E15">
-        <v>1.003072457688956</v>
+        <v>0.9826088105670433</v>
       </c>
       <c r="F15">
-        <v>1.012967526181984</v>
+        <v>0.9355602685175229</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045113074604521</v>
+        <v>1.02967537369942</v>
       </c>
       <c r="J15">
-        <v>1.017750796423622</v>
+        <v>1.002011275776838</v>
       </c>
       <c r="K15">
-        <v>1.027885254519348</v>
+        <v>1.010085859556754</v>
       </c>
       <c r="L15">
-        <v>1.017865056831467</v>
+        <v>0.997792525666981</v>
       </c>
       <c r="M15">
-        <v>1.027578375641537</v>
+        <v>0.9517297283959709</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9953842958088406</v>
+        <v>0.9766702629913462</v>
       </c>
       <c r="D16">
-        <v>1.019171573642596</v>
+        <v>0.9990617051292748</v>
       </c>
       <c r="E16">
-        <v>1.009522025929807</v>
+        <v>0.9868055041207697</v>
       </c>
       <c r="F16">
-        <v>1.019533265119364</v>
+        <v>0.9428536038130091</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047829675756321</v>
+        <v>1.031595682105285</v>
       </c>
       <c r="J16">
-        <v>1.02370487275925</v>
+        <v>1.005761223031673</v>
       </c>
       <c r="K16">
-        <v>1.033167409753185</v>
+        <v>1.01341119384295</v>
       </c>
       <c r="L16">
-        <v>1.023685280443315</v>
+        <v>1.001379755206099</v>
       </c>
       <c r="M16">
-        <v>1.033522905554617</v>
+        <v>0.9582974664061046</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9998714254222844</v>
+        <v>0.9798020483669722</v>
       </c>
       <c r="D17">
-        <v>1.022766751086356</v>
+        <v>1.001466486277861</v>
       </c>
       <c r="E17">
-        <v>1.013456968992226</v>
+        <v>0.9893825789267335</v>
       </c>
       <c r="F17">
-        <v>1.023540350648951</v>
+        <v>0.9473148314787377</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049481519494908</v>
+        <v>1.032769875819137</v>
       </c>
       <c r="J17">
-        <v>1.027334545458419</v>
+        <v>1.008059159063204</v>
       </c>
       <c r="K17">
-        <v>1.03638703453397</v>
+        <v>1.015448851443189</v>
       </c>
       <c r="L17">
-        <v>1.02723309233294</v>
+        <v>1.003579366769465</v>
       </c>
       <c r="M17">
-        <v>1.037147848691158</v>
+        <v>0.9623142994335485</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002445056795921</v>
+        <v>0.9816044143570811</v>
       </c>
       <c r="D18">
-        <v>1.024829699175426</v>
+        <v>1.002851105647057</v>
       </c>
       <c r="E18">
-        <v>1.015714630173442</v>
+        <v>0.9908667297842002</v>
       </c>
       <c r="F18">
-        <v>1.025839847044948</v>
+        <v>0.9498783088588845</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050427237124527</v>
+        <v>1.033444300441474</v>
       </c>
       <c r="J18">
-        <v>1.029416010006624</v>
+        <v>1.00938086220573</v>
       </c>
       <c r="K18">
-        <v>1.038233174777308</v>
+        <v>1.016620806106183</v>
       </c>
       <c r="L18">
-        <v>1.029267511938448</v>
+        <v>1.004844999961379</v>
       </c>
       <c r="M18">
-        <v>1.039226974983128</v>
+        <v>0.964622180985902</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003315446513404</v>
+        <v>0.9822149556892745</v>
       </c>
       <c r="D19">
-        <v>1.025527522287531</v>
+        <v>1.003320243292305</v>
       </c>
       <c r="E19">
-        <v>1.016478278912842</v>
+        <v>0.9913696471164258</v>
       </c>
       <c r="F19">
-        <v>1.026617720695427</v>
+        <v>0.9507460311229214</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050746779408226</v>
+        <v>1.033672530134521</v>
       </c>
       <c r="J19">
-        <v>1.030119884300175</v>
+        <v>1.009828449394156</v>
       </c>
       <c r="K19">
-        <v>1.03885743875922</v>
+        <v>1.01701767290942</v>
       </c>
       <c r="L19">
-        <v>1.029955459615855</v>
+        <v>1.005273679957676</v>
       </c>
       <c r="M19">
-        <v>1.03993012040669</v>
+        <v>0.965403341036392</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9993945726182023</v>
+        <v>0.979468583121257</v>
       </c>
       <c r="D20">
-        <v>1.022384590838012</v>
+        <v>1.001210362091552</v>
       </c>
       <c r="E20">
-        <v>1.013038718854628</v>
+        <v>0.9891080703773106</v>
       </c>
       <c r="F20">
-        <v>1.023114385963509</v>
+        <v>0.9468402341671547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04930615307783</v>
+        <v>1.03264498852095</v>
       </c>
       <c r="J20">
-        <v>1.026948852441008</v>
+        <v>1.007814560724165</v>
       </c>
       <c r="K20">
-        <v>1.036044931827252</v>
+        <v>1.015231962077217</v>
       </c>
       <c r="L20">
-        <v>1.026856108328536</v>
+        <v>1.003345183743078</v>
       </c>
       <c r="M20">
-        <v>1.036762618922592</v>
+        <v>0.9618870022133261</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9861145709745402</v>
+        <v>0.9702448404082611</v>
       </c>
       <c r="D21">
-        <v>1.011751256827427</v>
+        <v>0.9941325156454285</v>
       </c>
       <c r="E21">
-        <v>1.001398550429266</v>
+        <v>0.9815252677497118</v>
       </c>
       <c r="F21">
-        <v>1.011263880021414</v>
+        <v>0.9336712727477054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044406256537749</v>
+        <v>1.029177984638642</v>
       </c>
       <c r="J21">
-        <v>1.016204530587626</v>
+        <v>1.001041529920539</v>
       </c>
       <c r="K21">
-        <v>1.026513366447159</v>
+        <v>1.009225908534954</v>
       </c>
       <c r="L21">
-        <v>1.016353475198132</v>
+        <v>0.9968653114368083</v>
       </c>
       <c r="M21">
-        <v>1.026034951473418</v>
+        <v>0.9500285247164739</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773070637456684</v>
+        <v>0.964197956673352</v>
       </c>
       <c r="D22">
-        <v>1.004710117912733</v>
+        <v>0.9894996998621942</v>
       </c>
       <c r="E22">
-        <v>0.9936875624427417</v>
+        <v>0.9765648596078664</v>
       </c>
       <c r="F22">
-        <v>1.003418028232272</v>
+        <v>0.9249908577877934</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041141543846799</v>
+        <v>1.026893026402944</v>
       </c>
       <c r="J22">
-        <v>1.00907662633862</v>
+        <v>0.9965941254610112</v>
       </c>
       <c r="K22">
-        <v>1.020188840377883</v>
+        <v>1.005282079652579</v>
       </c>
       <c r="L22">
-        <v>1.0093851157877</v>
+        <v>0.9926153189396246</v>
       </c>
       <c r="M22">
-        <v>1.018922076061645</v>
+        <v>0.9422106217923378</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9820230054051797</v>
+        <v>0.9674284842992898</v>
       </c>
       <c r="D23">
-        <v>1.00847910197986</v>
+        <v>0.9919740261855159</v>
       </c>
       <c r="E23">
-        <v>0.9978154393011999</v>
+        <v>0.9792138819997476</v>
       </c>
       <c r="F23">
-        <v>1.007617669350294</v>
+        <v>0.9296332719441905</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042890958135702</v>
+        <v>1.028114866068263</v>
       </c>
       <c r="J23">
-        <v>1.012893355175879</v>
+        <v>0.9989708011415593</v>
       </c>
       <c r="K23">
-        <v>1.023575472493572</v>
+        <v>1.007389631942764</v>
       </c>
       <c r="L23">
-        <v>1.013116479211771</v>
+        <v>0.9948860188615631</v>
       </c>
       <c r="M23">
-        <v>1.022730363192319</v>
+        <v>0.9463918217942453</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9996101760499244</v>
+        <v>0.979619336671388</v>
       </c>
       <c r="D24">
-        <v>1.022557377348757</v>
+        <v>1.001326149153387</v>
       </c>
       <c r="E24">
-        <v>1.013227823487318</v>
+        <v>0.9892321675072814</v>
       </c>
       <c r="F24">
-        <v>1.023306977218888</v>
+        <v>0.9470548032602364</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04938544829554</v>
+        <v>1.032701451934908</v>
       </c>
       <c r="J24">
-        <v>1.02712324018873</v>
+        <v>1.007925141582189</v>
       </c>
       <c r="K24">
-        <v>1.036199611157245</v>
+        <v>1.015330016082063</v>
       </c>
       <c r="L24">
-        <v>1.027026558688311</v>
+        <v>1.003451054426964</v>
       </c>
       <c r="M24">
-        <v>1.036936796056832</v>
+        <v>0.9620801873308074</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018326791631629</v>
+        <v>0.9928204482884768</v>
       </c>
       <c r="D25">
-        <v>1.037573159072595</v>
+        <v>1.011477594313188</v>
       </c>
       <c r="E25">
-        <v>1.029657444384374</v>
+        <v>1.000119304986557</v>
       </c>
       <c r="F25">
-        <v>1.040048500869727</v>
+        <v>0.9657708877337712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056231893757701</v>
+        <v>1.037617182849026</v>
       </c>
       <c r="J25">
-        <v>1.042252744668706</v>
+        <v>1.017591872526299</v>
       </c>
       <c r="K25">
-        <v>1.049614913292785</v>
+        <v>1.023900310426603</v>
       </c>
       <c r="L25">
-        <v>1.041812172924732</v>
+        <v>1.012715769180975</v>
       </c>
       <c r="M25">
-        <v>1.0520553725238</v>
+        <v>0.9789248724680967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002707258698423</v>
+        <v>1.041283512961458</v>
       </c>
       <c r="D2">
-        <v>1.019094831605668</v>
+        <v>1.043523996761665</v>
       </c>
       <c r="E2">
-        <v>1.008299267281788</v>
+        <v>1.039520552964206</v>
       </c>
       <c r="F2">
-        <v>0.9797059344886595</v>
+        <v>1.04005079143382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041256288218888</v>
+        <v>1.039689566532417</v>
       </c>
       <c r="J2">
-        <v>1.024807296544726</v>
+        <v>1.046365555210746</v>
       </c>
       <c r="K2">
-        <v>1.030294403419654</v>
+        <v>1.046297620559727</v>
       </c>
       <c r="L2">
-        <v>1.019644178427193</v>
+        <v>1.042305506525003</v>
       </c>
       <c r="M2">
-        <v>0.9914554302074908</v>
+        <v>1.042834238978154</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009562380905848</v>
+        <v>1.042611367692881</v>
       </c>
       <c r="D3">
-        <v>1.024382551188386</v>
+        <v>1.044557176498724</v>
       </c>
       <c r="E3">
-        <v>1.013984092937472</v>
+        <v>1.040663462255592</v>
       </c>
       <c r="F3">
-        <v>0.9893347499876886</v>
+        <v>1.042007747970503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043754105469834</v>
+        <v>1.040095466089856</v>
       </c>
       <c r="J3">
-        <v>1.0297957172296</v>
+        <v>1.04733749022168</v>
       </c>
       <c r="K3">
-        <v>1.03471267572473</v>
+        <v>1.047141272094567</v>
       </c>
       <c r="L3">
-        <v>1.02444111756562</v>
+        <v>1.043257774557176</v>
       </c>
       <c r="M3">
-        <v>1.00010593839455</v>
+        <v>1.044598523683211</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>1.013862177099309</v>
+        <v>1.043469050889066</v>
       </c>
       <c r="D4">
-        <v>1.027701474996563</v>
+        <v>1.045224334847763</v>
       </c>
       <c r="E4">
-        <v>1.017555356204266</v>
+        <v>1.04140189179445</v>
       </c>
       <c r="F4">
-        <v>0.995362834833811</v>
+        <v>1.043272232234967</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045308812668118</v>
+        <v>1.04035613510211</v>
       </c>
       <c r="J4">
-        <v>1.032917813176152</v>
+        <v>1.047964418026637</v>
       </c>
       <c r="K4">
-        <v>1.037476679549948</v>
+        <v>1.04768519380586</v>
       </c>
       <c r="L4">
-        <v>1.027446421896843</v>
+        <v>1.043872271983033</v>
       </c>
       <c r="M4">
-        <v>1.005517550439881</v>
+        <v>1.045737944252977</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015639114999272</v>
+        <v>1.043829261698173</v>
       </c>
       <c r="D5">
-        <v>1.029073514603685</v>
+        <v>1.045504482618464</v>
       </c>
       <c r="E5">
-        <v>1.019032468076372</v>
+        <v>1.041712066810589</v>
       </c>
       <c r="F5">
-        <v>0.9978517603357252</v>
+        <v>1.043803405673268</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045948386833836</v>
+        <v>1.040465249799803</v>
       </c>
       <c r="J5">
-        <v>1.034206391343347</v>
+        <v>1.048227509637835</v>
       </c>
       <c r="K5">
-        <v>1.038617136488154</v>
+        <v>1.047913389285166</v>
       </c>
       <c r="L5">
-        <v>1.028687507972124</v>
+        <v>1.044130208137158</v>
       </c>
       <c r="M5">
-        <v>1.0077509290134</v>
+        <v>1.046216445596791</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015935721247077</v>
+        <v>1.043889721802199</v>
       </c>
       <c r="D6">
-        <v>1.029302559839732</v>
+        <v>1.04555150169296</v>
       </c>
       <c r="E6">
-        <v>1.01927909867751</v>
+        <v>1.041764131407691</v>
       </c>
       <c r="F6">
-        <v>0.9982670931366882</v>
+        <v>1.043892568072879</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046054971203842</v>
+        <v>1.040483543110529</v>
       </c>
       <c r="J6">
-        <v>1.03442138221708</v>
+        <v>1.048271656527891</v>
       </c>
       <c r="K6">
-        <v>1.038807394386176</v>
+        <v>1.047951676915581</v>
       </c>
       <c r="L6">
-        <v>1.028894616366055</v>
+        <v>1.044173493510831</v>
       </c>
       <c r="M6">
-        <v>1.008123557153749</v>
+        <v>1.046296758488863</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013886038928425</v>
+        <v>1.043473865446935</v>
       </c>
       <c r="D7">
-        <v>1.027719897894725</v>
+        <v>1.045228079470074</v>
       </c>
       <c r="E7">
-        <v>1.017575186939104</v>
+        <v>1.041406037386923</v>
       </c>
       <c r="F7">
-        <v>0.9953962659362575</v>
+        <v>1.04327933141609</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045317412904817</v>
+        <v>1.040357594944178</v>
       </c>
       <c r="J7">
-        <v>1.032935123617063</v>
+        <v>1.047967935305718</v>
       </c>
       <c r="K7">
-        <v>1.037492001492238</v>
+        <v>1.04768824480359</v>
       </c>
       <c r="L7">
-        <v>1.02746309154996</v>
+        <v>1.043875720099084</v>
       </c>
       <c r="M7">
-        <v>1.005547553124446</v>
+        <v>1.045744340003313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005053288043844</v>
+        <v>1.041732587914414</v>
       </c>
       <c r="D8">
-        <v>1.020903916594415</v>
+        <v>1.04387345262166</v>
       </c>
       <c r="E8">
-        <v>1.010243570616947</v>
+        <v>1.039907037066105</v>
       </c>
       <c r="F8">
-        <v>0.9830039595047526</v>
+        <v>1.040712535034916</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042113629233002</v>
+        <v>1.039827152543523</v>
       </c>
       <c r="J8">
-        <v>1.026515913798622</v>
+        <v>1.04669443799557</v>
       </c>
       <c r="K8">
-        <v>1.031807984412682</v>
+        <v>1.046583148454251</v>
       </c>
       <c r="L8">
-        <v>1.021286551230192</v>
+        <v>1.042627681304075</v>
       </c>
       <c r="M8">
-        <v>0.9944191833107514</v>
+        <v>1.043430948557377</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9883551389547289</v>
+        <v>1.038652241919602</v>
       </c>
       <c r="D9">
-        <v>1.008041218917445</v>
+        <v>1.041475678783609</v>
       </c>
       <c r="E9">
-        <v>0.9964322253632018</v>
+        <v>1.037256896222565</v>
       </c>
       <c r="F9">
-        <v>0.9594554880554396</v>
+        <v>1.036175090221767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035961089539457</v>
+        <v>1.038877214315632</v>
       </c>
       <c r="J9">
-        <v>1.014325916587993</v>
+        <v>1.04443499111193</v>
       </c>
       <c r="K9">
-        <v>1.021005166383354</v>
+        <v>1.044620497051295</v>
       </c>
       <c r="L9">
-        <v>1.00958345365968</v>
+        <v>1.040415379287334</v>
       </c>
       <c r="M9">
-        <v>0.9732425074986097</v>
+        <v>1.039337096938423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9763129583568478</v>
+        <v>1.036590202625463</v>
       </c>
       <c r="D10">
-        <v>0.9987874369123917</v>
+        <v>1.039869661844941</v>
       </c>
       <c r="E10">
-        <v>0.9865116301394447</v>
+        <v>1.035483974619461</v>
       </c>
       <c r="F10">
-        <v>0.9423440473526422</v>
+        <v>1.033139512605955</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031461537390935</v>
+        <v>1.038233535140552</v>
       </c>
       <c r="J10">
-        <v>1.005498946150432</v>
+        <v>1.042918035364776</v>
       </c>
       <c r="K10">
-        <v>1.013178619127624</v>
+        <v>1.043301491309166</v>
       </c>
       <c r="L10">
-        <v>1.001128768068885</v>
+        <v>1.038931417905413</v>
       </c>
       <c r="M10">
-        <v>0.9578386380144194</v>
+        <v>1.036595362593583</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9708431403512995</v>
+        <v>1.035695214086733</v>
       </c>
       <c r="D11">
-        <v>0.9945912232299861</v>
+        <v>1.039172397650024</v>
       </c>
       <c r="E11">
-        <v>0.9820165303436562</v>
+        <v>1.034714750064464</v>
       </c>
       <c r="F11">
-        <v>0.934528024844989</v>
+        <v>1.031822351539389</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02940357250533</v>
+        <v>1.037952318176816</v>
       </c>
       <c r="J11">
-        <v>1.001481276602268</v>
+        <v>1.042258577816105</v>
       </c>
       <c r="K11">
-        <v>1.009615867119223</v>
+        <v>1.04272778030424</v>
       </c>
       <c r="L11">
-        <v>0.9972857485660743</v>
+        <v>1.038286624803853</v>
       </c>
       <c r="M11">
-        <v>0.9508001096700559</v>
+        <v>1.035405011740867</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9687690415493503</v>
+        <v>1.03536245013538</v>
       </c>
       <c r="D12">
-        <v>0.9930012865159884</v>
+        <v>1.038913119561226</v>
       </c>
       <c r="E12">
-        <v>0.9803138484373737</v>
+        <v>1.034428788770396</v>
       </c>
       <c r="F12">
-        <v>0.9315563678933982</v>
+        <v>1.031332670528146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028621147196158</v>
+        <v>1.037847483211903</v>
       </c>
       <c r="J12">
-        <v>0.9999565948992202</v>
+        <v>1.042013228225197</v>
       </c>
       <c r="K12">
-        <v>1.008263810481464</v>
+        <v>1.042514286731846</v>
       </c>
       <c r="L12">
-        <v>0.9958281788023862</v>
+        <v>1.038046779540654</v>
       </c>
       <c r="M12">
-        <v>0.948123819779576</v>
+        <v>1.034962371426022</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9692159304507713</v>
+        <v>1.035433843986003</v>
       </c>
       <c r="D13">
-        <v>0.9933437989593233</v>
+        <v>1.03896874849119</v>
       </c>
       <c r="E13">
-        <v>0.9806806267426739</v>
+        <v>1.034490139262547</v>
       </c>
       <c r="F13">
-        <v>0.9321970268697695</v>
+        <v>1.031437728454885</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02878982206996</v>
+        <v>1.037869987841229</v>
       </c>
       <c r="J13">
-        <v>1.000285160331618</v>
+        <v>1.042065874642312</v>
       </c>
       <c r="K13">
-        <v>1.008555175313631</v>
+        <v>1.042560099640274</v>
       </c>
       <c r="L13">
-        <v>0.9961422432602063</v>
+        <v>1.038098242658869</v>
       </c>
       <c r="M13">
-        <v>0.9487008088757076</v>
+        <v>1.035057341753489</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.970672584112281</v>
+        <v>1.035667714398853</v>
       </c>
       <c r="D14">
-        <v>0.9944604545443632</v>
+        <v>1.039150971449582</v>
       </c>
       <c r="E14">
-        <v>0.9818764785733578</v>
+        <v>1.034691117285293</v>
       </c>
       <c r="F14">
-        <v>0.9342838297632954</v>
+        <v>1.031781883203502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029339273999846</v>
+        <v>1.037943660223457</v>
       </c>
       <c r="J14">
-        <v>1.001355924427556</v>
+        <v>1.042238305291427</v>
       </c>
       <c r="K14">
-        <v>1.009504707319703</v>
+        <v>1.042710140881155</v>
       </c>
       <c r="L14">
-        <v>0.997165896813031</v>
+        <v>1.038266806096487</v>
       </c>
       <c r="M14">
-        <v>0.9505801902259062</v>
+        <v>1.035368433063776</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9715643333918909</v>
+        <v>1.035811766323142</v>
       </c>
       <c r="D15">
-        <v>0.9951442262805625</v>
+        <v>1.039263207348343</v>
       </c>
       <c r="E15">
-        <v>0.9826088105670433</v>
+        <v>1.03481491488677</v>
       </c>
       <c r="F15">
-        <v>0.9355602685175229</v>
+        <v>1.03199387095742</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02967537369942</v>
+        <v>1.03798900197167</v>
       </c>
       <c r="J15">
-        <v>1.002011275776838</v>
+        <v>1.042344492619781</v>
       </c>
       <c r="K15">
-        <v>1.010085859556754</v>
+        <v>1.042802534172369</v>
       </c>
       <c r="L15">
-        <v>0.997792525666981</v>
+        <v>1.038370618317684</v>
       </c>
       <c r="M15">
-        <v>0.9517297283959709</v>
+        <v>1.03556004114329</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9766702629913462</v>
+        <v>1.036649554884634</v>
       </c>
       <c r="D16">
-        <v>0.9990617051292748</v>
+        <v>1.039915897569308</v>
       </c>
       <c r="E16">
-        <v>0.9868055041207697</v>
+        <v>1.035534992608689</v>
       </c>
       <c r="F16">
-        <v>0.9428536038130091</v>
+        <v>1.033226869097917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031595682105285</v>
+        <v>1.038252145671138</v>
       </c>
       <c r="J16">
-        <v>1.005761223031673</v>
+        <v>1.042961745961935</v>
       </c>
       <c r="K16">
-        <v>1.01341119384295</v>
+        <v>1.043339511968103</v>
       </c>
       <c r="L16">
-        <v>1.001379755206099</v>
+        <v>1.038974163276145</v>
       </c>
       <c r="M16">
-        <v>0.9582974664061046</v>
+        <v>1.036674294283109</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9798020483669722</v>
+        <v>1.037174506422346</v>
       </c>
       <c r="D17">
-        <v>1.001466486277861</v>
+        <v>1.040324814245112</v>
       </c>
       <c r="E17">
-        <v>0.9893825789267335</v>
+        <v>1.035986262403656</v>
       </c>
       <c r="F17">
-        <v>0.9473148314787377</v>
+        <v>1.033999551324974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032769875819137</v>
+        <v>1.038416537485011</v>
       </c>
       <c r="J17">
-        <v>1.008059159063204</v>
+        <v>1.043348230684766</v>
       </c>
       <c r="K17">
-        <v>1.015448851443189</v>
+        <v>1.043675651464849</v>
       </c>
       <c r="L17">
-        <v>1.003579366769465</v>
+        <v>1.039352150597754</v>
       </c>
       <c r="M17">
-        <v>0.9623142994335485</v>
+        <v>1.037372378100631</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9816044143570811</v>
+        <v>1.037480498552709</v>
       </c>
       <c r="D18">
-        <v>1.002851105647057</v>
+        <v>1.04056315046438</v>
       </c>
       <c r="E18">
-        <v>0.9908667297842002</v>
+        <v>1.03624933247421</v>
       </c>
       <c r="F18">
-        <v>0.9498783088588845</v>
+        <v>1.034449981021944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033444300441474</v>
+        <v>1.038512183469583</v>
       </c>
       <c r="J18">
-        <v>1.00938086220573</v>
+        <v>1.043573409696201</v>
       </c>
       <c r="K18">
-        <v>1.016620806106183</v>
+        <v>1.04387146806312</v>
       </c>
       <c r="L18">
-        <v>1.004844999961379</v>
+        <v>1.039572409620497</v>
       </c>
       <c r="M18">
-        <v>0.964622180985902</v>
+        <v>1.03777925460121</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9822149556892745</v>
+        <v>1.037584799734647</v>
       </c>
       <c r="D19">
-        <v>1.003320243292305</v>
+        <v>1.040644386934441</v>
       </c>
       <c r="E19">
-        <v>0.9913696471164258</v>
+        <v>1.03633900765288</v>
       </c>
       <c r="F19">
-        <v>0.9507460311229214</v>
+        <v>1.034603521870611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033672530134521</v>
+        <v>1.03854475549217</v>
       </c>
       <c r="J19">
-        <v>1.009828449394156</v>
+        <v>1.043650147534905</v>
       </c>
       <c r="K19">
-        <v>1.01701767290942</v>
+        <v>1.043938194574525</v>
       </c>
       <c r="L19">
-        <v>1.005273679957676</v>
+        <v>1.039647476027717</v>
       </c>
       <c r="M19">
-        <v>0.965403341036392</v>
+        <v>1.037917937894383</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.979468583121257</v>
+        <v>1.037118205170541</v>
       </c>
       <c r="D20">
-        <v>1.001210362091552</v>
+        <v>1.040280959803585</v>
       </c>
       <c r="E20">
-        <v>0.9891080703773106</v>
+        <v>1.03593786077511</v>
       </c>
       <c r="F20">
-        <v>0.9468402341671547</v>
+        <v>1.033916677145478</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03264498852095</v>
+        <v>1.038398924746609</v>
       </c>
       <c r="J20">
-        <v>1.007814560724165</v>
+        <v>1.043306790538943</v>
       </c>
       <c r="K20">
-        <v>1.015231962077217</v>
+        <v>1.043639612556752</v>
       </c>
       <c r="L20">
-        <v>1.003345183743078</v>
+        <v>1.039311618373345</v>
       </c>
       <c r="M20">
-        <v>0.9618870022133261</v>
+        <v>1.03729751187399</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9702448404082611</v>
+        <v>1.035598854437976</v>
       </c>
       <c r="D21">
-        <v>0.9941325156454285</v>
+        <v>1.039097319189624</v>
       </c>
       <c r="E21">
-        <v>0.9815252677497118</v>
+        <v>1.034631940858973</v>
       </c>
       <c r="F21">
-        <v>0.9336712727477054</v>
+        <v>1.031680550186303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029177984638642</v>
+        <v>1.037921976014176</v>
       </c>
       <c r="J21">
-        <v>1.001041529920539</v>
+        <v>1.042187539791546</v>
       </c>
       <c r="K21">
-        <v>1.009225908534954</v>
+        <v>1.042665968332122</v>
       </c>
       <c r="L21">
-        <v>0.9968653114368083</v>
+        <v>1.03821717780776</v>
       </c>
       <c r="M21">
-        <v>0.9500285247164739</v>
+        <v>1.035276838109974</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.964197956673352</v>
+        <v>1.03464169185667</v>
       </c>
       <c r="D22">
-        <v>0.9894996998621942</v>
+        <v>1.038351476570501</v>
       </c>
       <c r="E22">
-        <v>0.9765648596078664</v>
+        <v>1.033809482690574</v>
       </c>
       <c r="F22">
-        <v>0.9249908577877934</v>
+        <v>1.030272118944649</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026893026402944</v>
+        <v>1.037619908275768</v>
       </c>
       <c r="J22">
-        <v>0.9965941254610112</v>
+        <v>1.041481518360323</v>
       </c>
       <c r="K22">
-        <v>1.005282079652579</v>
+        <v>1.042051530332815</v>
       </c>
       <c r="L22">
-        <v>0.9926153189396246</v>
+        <v>1.037527087317498</v>
       </c>
       <c r="M22">
-        <v>0.9422106217923378</v>
+        <v>1.034003511470126</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9674284842992898</v>
+        <v>1.035149283378646</v>
       </c>
       <c r="D23">
-        <v>0.9919740261855159</v>
+        <v>1.038747019212882</v>
       </c>
       <c r="E23">
-        <v>0.9792138819997476</v>
+        <v>1.034245615633044</v>
       </c>
       <c r="F23">
-        <v>0.9296332719441905</v>
+        <v>1.031018996920251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028114866068263</v>
+        <v>1.0377802487767</v>
       </c>
       <c r="J23">
-        <v>0.9989708011415593</v>
+        <v>1.041856014169128</v>
       </c>
       <c r="K23">
-        <v>1.007389631942764</v>
+        <v>1.042377472396081</v>
       </c>
       <c r="L23">
-        <v>0.9948860188615631</v>
+        <v>1.037893106195083</v>
       </c>
       <c r="M23">
-        <v>0.9463918217942453</v>
+        <v>1.034678801426716</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.979619336671388</v>
+        <v>1.037143645910016</v>
       </c>
       <c r="D24">
-        <v>1.001326149153387</v>
+        <v>1.040300776287467</v>
       </c>
       <c r="E24">
-        <v>0.9892321675072814</v>
+        <v>1.03595973184435</v>
       </c>
       <c r="F24">
-        <v>0.9470548032602364</v>
+        <v>1.033954125230035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032701451934908</v>
+        <v>1.038406883929308</v>
       </c>
       <c r="J24">
-        <v>1.007925141582189</v>
+        <v>1.043325516332057</v>
       </c>
       <c r="K24">
-        <v>1.015330016082063</v>
+        <v>1.043655897753533</v>
       </c>
       <c r="L24">
-        <v>1.003451054426964</v>
+        <v>1.03932993380344</v>
       </c>
       <c r="M24">
-        <v>0.9620801873308074</v>
+        <v>1.03733134163685</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9928204482884768</v>
+        <v>1.039450048590257</v>
       </c>
       <c r="D25">
-        <v>1.011477594313188</v>
+        <v>1.04209686261007</v>
       </c>
       <c r="E25">
-        <v>1.000119304986557</v>
+        <v>1.037943084584006</v>
       </c>
       <c r="F25">
-        <v>0.9657708877337712</v>
+        <v>1.037349931550897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037617182849026</v>
+        <v>1.039124616066789</v>
       </c>
       <c r="J25">
-        <v>1.017591872526299</v>
+        <v>1.045020967466597</v>
       </c>
       <c r="K25">
-        <v>1.023900310426603</v>
+        <v>1.04512973325593</v>
       </c>
       <c r="L25">
-        <v>1.012715769180975</v>
+        <v>1.04098889395836</v>
       </c>
       <c r="M25">
-        <v>0.9789248724680967</v>
+        <v>1.040397597793815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041283512961458</v>
+        <v>1.002707258698424</v>
       </c>
       <c r="D2">
-        <v>1.043523996761665</v>
+        <v>1.019094831605669</v>
       </c>
       <c r="E2">
-        <v>1.039520552964206</v>
+        <v>1.008299267281789</v>
       </c>
       <c r="F2">
-        <v>1.04005079143382</v>
+        <v>0.9797059344886604</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039689566532417</v>
+        <v>1.041256288218889</v>
       </c>
       <c r="J2">
-        <v>1.046365555210746</v>
+        <v>1.024807296544727</v>
       </c>
       <c r="K2">
-        <v>1.046297620559727</v>
+        <v>1.030294403419655</v>
       </c>
       <c r="L2">
-        <v>1.042305506525003</v>
+        <v>1.019644178427193</v>
       </c>
       <c r="M2">
-        <v>1.042834238978154</v>
+        <v>0.9914554302074916</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042611367692881</v>
+        <v>1.009562380905847</v>
       </c>
       <c r="D3">
-        <v>1.044557176498724</v>
+        <v>1.024382551188386</v>
       </c>
       <c r="E3">
-        <v>1.040663462255592</v>
+        <v>1.013984092937472</v>
       </c>
       <c r="F3">
-        <v>1.042007747970503</v>
+        <v>0.9893347499876882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040095466089856</v>
+        <v>1.043754105469833</v>
       </c>
       <c r="J3">
-        <v>1.04733749022168</v>
+        <v>1.029795717229599</v>
       </c>
       <c r="K3">
-        <v>1.047141272094567</v>
+        <v>1.034712675724729</v>
       </c>
       <c r="L3">
-        <v>1.043257774557176</v>
+        <v>1.02444111756562</v>
       </c>
       <c r="M3">
-        <v>1.044598523683211</v>
+        <v>1.000105938394549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043469050889066</v>
+        <v>1.01386217709931</v>
       </c>
       <c r="D4">
-        <v>1.045224334847763</v>
+        <v>1.027701474996563</v>
       </c>
       <c r="E4">
-        <v>1.04140189179445</v>
+        <v>1.017555356204266</v>
       </c>
       <c r="F4">
-        <v>1.043272232234967</v>
+        <v>0.9953628348338104</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04035613510211</v>
+        <v>1.045308812668118</v>
       </c>
       <c r="J4">
-        <v>1.047964418026637</v>
+        <v>1.032917813176152</v>
       </c>
       <c r="K4">
-        <v>1.04768519380586</v>
+        <v>1.037476679549948</v>
       </c>
       <c r="L4">
-        <v>1.043872271983033</v>
+        <v>1.027446421896843</v>
       </c>
       <c r="M4">
-        <v>1.045737944252977</v>
+        <v>1.00551755043988</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043829261698173</v>
+        <v>1.01563911499927</v>
       </c>
       <c r="D5">
-        <v>1.045504482618464</v>
+        <v>1.029073514603684</v>
       </c>
       <c r="E5">
-        <v>1.041712066810589</v>
+        <v>1.019032468076371</v>
       </c>
       <c r="F5">
-        <v>1.043803405673268</v>
+        <v>0.997851760335724</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040465249799803</v>
+        <v>1.045948386833835</v>
       </c>
       <c r="J5">
-        <v>1.048227509637835</v>
+        <v>1.034206391343346</v>
       </c>
       <c r="K5">
-        <v>1.047913389285166</v>
+        <v>1.038617136488153</v>
       </c>
       <c r="L5">
-        <v>1.044130208137158</v>
+        <v>1.028687507972122</v>
       </c>
       <c r="M5">
-        <v>1.046216445596791</v>
+        <v>1.007750929013399</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043889721802199</v>
+        <v>1.015935721247077</v>
       </c>
       <c r="D6">
-        <v>1.04555150169296</v>
+        <v>1.029302559839732</v>
       </c>
       <c r="E6">
-        <v>1.041764131407691</v>
+        <v>1.01927909867751</v>
       </c>
       <c r="F6">
-        <v>1.043892568072879</v>
+        <v>0.9982670931366882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040483543110529</v>
+        <v>1.046054971203842</v>
       </c>
       <c r="J6">
-        <v>1.048271656527891</v>
+        <v>1.03442138221708</v>
       </c>
       <c r="K6">
-        <v>1.047951676915581</v>
+        <v>1.038807394386175</v>
       </c>
       <c r="L6">
-        <v>1.044173493510831</v>
+        <v>1.028894616366054</v>
       </c>
       <c r="M6">
-        <v>1.046296758488863</v>
+        <v>1.008123557153749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043473865446935</v>
+        <v>1.013886038928425</v>
       </c>
       <c r="D7">
-        <v>1.045228079470074</v>
+        <v>1.027719897894724</v>
       </c>
       <c r="E7">
-        <v>1.041406037386923</v>
+        <v>1.017575186939103</v>
       </c>
       <c r="F7">
-        <v>1.04327933141609</v>
+        <v>0.9953962659362566</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040357594944178</v>
+        <v>1.045317412904816</v>
       </c>
       <c r="J7">
-        <v>1.047967935305718</v>
+        <v>1.032935123617062</v>
       </c>
       <c r="K7">
-        <v>1.04768824480359</v>
+        <v>1.037492001492238</v>
       </c>
       <c r="L7">
-        <v>1.043875720099084</v>
+        <v>1.027463091549959</v>
       </c>
       <c r="M7">
-        <v>1.045744340003313</v>
+        <v>1.005547553124446</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041732587914414</v>
+        <v>1.005053288043844</v>
       </c>
       <c r="D8">
-        <v>1.04387345262166</v>
+        <v>1.020903916594414</v>
       </c>
       <c r="E8">
-        <v>1.039907037066105</v>
+        <v>1.010243570616947</v>
       </c>
       <c r="F8">
-        <v>1.040712535034916</v>
+        <v>0.9830039595047522</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039827152543523</v>
+        <v>1.042113629233001</v>
       </c>
       <c r="J8">
-        <v>1.04669443799557</v>
+        <v>1.026515913798621</v>
       </c>
       <c r="K8">
-        <v>1.046583148454251</v>
+        <v>1.031807984412681</v>
       </c>
       <c r="L8">
-        <v>1.042627681304075</v>
+        <v>1.021286551230192</v>
       </c>
       <c r="M8">
-        <v>1.043430948557377</v>
+        <v>0.9944191833107507</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038652241919602</v>
+        <v>0.9883551389547298</v>
       </c>
       <c r="D9">
-        <v>1.041475678783609</v>
+        <v>1.008041218917445</v>
       </c>
       <c r="E9">
-        <v>1.037256896222565</v>
+        <v>0.9964322253632024</v>
       </c>
       <c r="F9">
-        <v>1.036175090221767</v>
+        <v>0.9594554880554401</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038877214315632</v>
+        <v>1.035961089539457</v>
       </c>
       <c r="J9">
-        <v>1.04443499111193</v>
+        <v>1.014325916587994</v>
       </c>
       <c r="K9">
-        <v>1.044620497051295</v>
+        <v>1.021005166383355</v>
       </c>
       <c r="L9">
-        <v>1.040415379287334</v>
+        <v>1.009583453659681</v>
       </c>
       <c r="M9">
-        <v>1.039337096938423</v>
+        <v>0.9732425074986104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036590202625463</v>
+        <v>0.9763129583568477</v>
       </c>
       <c r="D10">
-        <v>1.039869661844941</v>
+        <v>0.9987874369123916</v>
       </c>
       <c r="E10">
-        <v>1.035483974619461</v>
+        <v>0.9865116301394448</v>
       </c>
       <c r="F10">
-        <v>1.033139512605955</v>
+        <v>0.9423440473526423</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038233535140552</v>
+        <v>1.031461537390935</v>
       </c>
       <c r="J10">
-        <v>1.042918035364776</v>
+        <v>1.005498946150432</v>
       </c>
       <c r="K10">
-        <v>1.043301491309166</v>
+        <v>1.013178619127624</v>
       </c>
       <c r="L10">
-        <v>1.038931417905413</v>
+        <v>1.001128768068885</v>
       </c>
       <c r="M10">
-        <v>1.036595362593583</v>
+        <v>0.9578386380144195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035695214086733</v>
+        <v>0.9708431403513006</v>
       </c>
       <c r="D11">
-        <v>1.039172397650024</v>
+        <v>0.9945912232299872</v>
       </c>
       <c r="E11">
-        <v>1.034714750064464</v>
+        <v>0.9820165303436572</v>
       </c>
       <c r="F11">
-        <v>1.031822351539389</v>
+        <v>0.9345280248449894</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037952318176816</v>
+        <v>1.029403572505331</v>
       </c>
       <c r="J11">
-        <v>1.042258577816105</v>
+        <v>1.001481276602269</v>
       </c>
       <c r="K11">
-        <v>1.04272778030424</v>
+        <v>1.009615867119224</v>
       </c>
       <c r="L11">
-        <v>1.038286624803853</v>
+        <v>0.9972857485660753</v>
       </c>
       <c r="M11">
-        <v>1.035405011740867</v>
+        <v>0.9508001096700565</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03536245013538</v>
+        <v>0.9687690415493491</v>
       </c>
       <c r="D12">
-        <v>1.038913119561226</v>
+        <v>0.9930012865159873</v>
       </c>
       <c r="E12">
-        <v>1.034428788770396</v>
+        <v>0.9803138484373725</v>
       </c>
       <c r="F12">
-        <v>1.031332670528146</v>
+        <v>0.9315563678933966</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037847483211903</v>
+        <v>1.028621147196158</v>
       </c>
       <c r="J12">
-        <v>1.042013228225197</v>
+        <v>0.9999565948992191</v>
       </c>
       <c r="K12">
-        <v>1.042514286731846</v>
+        <v>1.008263810481463</v>
       </c>
       <c r="L12">
-        <v>1.038046779540654</v>
+        <v>0.9958281788023849</v>
       </c>
       <c r="M12">
-        <v>1.034962371426022</v>
+        <v>0.9481238197795743</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035433843986003</v>
+        <v>0.9692159304507717</v>
       </c>
       <c r="D13">
-        <v>1.03896874849119</v>
+        <v>0.9933437989593238</v>
       </c>
       <c r="E13">
-        <v>1.034490139262547</v>
+        <v>0.9806806267426742</v>
       </c>
       <c r="F13">
-        <v>1.031437728454885</v>
+        <v>0.9321970268697695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037869987841229</v>
+        <v>1.028789822069961</v>
       </c>
       <c r="J13">
-        <v>1.042065874642312</v>
+        <v>1.000285160331618</v>
       </c>
       <c r="K13">
-        <v>1.042560099640274</v>
+        <v>1.008555175313632</v>
       </c>
       <c r="L13">
-        <v>1.038098242658869</v>
+        <v>0.9961422432602068</v>
       </c>
       <c r="M13">
-        <v>1.035057341753489</v>
+        <v>0.9487008088757076</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035667714398853</v>
+        <v>0.97067258411228</v>
       </c>
       <c r="D14">
-        <v>1.039150971449582</v>
+        <v>0.994460454544362</v>
       </c>
       <c r="E14">
-        <v>1.034691117285293</v>
+        <v>0.9818764785733571</v>
       </c>
       <c r="F14">
-        <v>1.031781883203502</v>
+        <v>0.9342838297632946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037943660223457</v>
+        <v>1.029339273999845</v>
       </c>
       <c r="J14">
-        <v>1.042238305291427</v>
+        <v>1.001355924427556</v>
       </c>
       <c r="K14">
-        <v>1.042710140881155</v>
+        <v>1.009504707319702</v>
       </c>
       <c r="L14">
-        <v>1.038266806096487</v>
+        <v>0.9971658968130301</v>
       </c>
       <c r="M14">
-        <v>1.035368433063776</v>
+        <v>0.9505801902259055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035811766323142</v>
+        <v>0.9715643333918897</v>
       </c>
       <c r="D15">
-        <v>1.039263207348343</v>
+        <v>0.995144226280562</v>
       </c>
       <c r="E15">
-        <v>1.03481491488677</v>
+        <v>0.9826088105670423</v>
       </c>
       <c r="F15">
-        <v>1.03199387095742</v>
+        <v>0.9355602685175219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03798900197167</v>
+        <v>1.029675373699419</v>
       </c>
       <c r="J15">
-        <v>1.042344492619781</v>
+        <v>1.002011275776837</v>
       </c>
       <c r="K15">
-        <v>1.042802534172369</v>
+        <v>1.010085859556753</v>
       </c>
       <c r="L15">
-        <v>1.038370618317684</v>
+        <v>0.9977925256669801</v>
       </c>
       <c r="M15">
-        <v>1.03556004114329</v>
+        <v>0.9517297283959703</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036649554884634</v>
+        <v>0.9766702629913461</v>
       </c>
       <c r="D16">
-        <v>1.039915897569308</v>
+        <v>0.9990617051292746</v>
       </c>
       <c r="E16">
-        <v>1.035534992608689</v>
+        <v>0.9868055041207696</v>
       </c>
       <c r="F16">
-        <v>1.033226869097917</v>
+        <v>0.9428536038130091</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038252145671138</v>
+        <v>1.031595682105285</v>
       </c>
       <c r="J16">
-        <v>1.042961745961935</v>
+        <v>1.005761223031672</v>
       </c>
       <c r="K16">
-        <v>1.043339511968103</v>
+        <v>1.01341119384295</v>
       </c>
       <c r="L16">
-        <v>1.038974163276145</v>
+        <v>1.001379755206099</v>
       </c>
       <c r="M16">
-        <v>1.036674294283109</v>
+        <v>0.9582974664061042</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037174506422346</v>
+        <v>0.9798020483669725</v>
       </c>
       <c r="D17">
-        <v>1.040324814245112</v>
+        <v>1.001466486277862</v>
       </c>
       <c r="E17">
-        <v>1.035986262403656</v>
+        <v>0.9893825789267334</v>
       </c>
       <c r="F17">
-        <v>1.033999551324974</v>
+        <v>0.9473148314787374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038416537485011</v>
+        <v>1.032769875819137</v>
       </c>
       <c r="J17">
-        <v>1.043348230684766</v>
+        <v>1.008059159063204</v>
       </c>
       <c r="K17">
-        <v>1.043675651464849</v>
+        <v>1.015448851443189</v>
       </c>
       <c r="L17">
-        <v>1.039352150597754</v>
+        <v>1.003579366769464</v>
       </c>
       <c r="M17">
-        <v>1.037372378100631</v>
+        <v>0.9623142994335484</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037480498552709</v>
+        <v>0.9816044143570803</v>
       </c>
       <c r="D18">
-        <v>1.04056315046438</v>
+        <v>1.002851105647056</v>
       </c>
       <c r="E18">
-        <v>1.03624933247421</v>
+        <v>0.9908667297841994</v>
       </c>
       <c r="F18">
-        <v>1.034449981021944</v>
+        <v>0.9498783088588837</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038512183469583</v>
+        <v>1.033444300441473</v>
       </c>
       <c r="J18">
-        <v>1.043573409696201</v>
+        <v>1.00938086220573</v>
       </c>
       <c r="K18">
-        <v>1.04387146806312</v>
+        <v>1.016620806106182</v>
       </c>
       <c r="L18">
-        <v>1.039572409620497</v>
+        <v>1.004844999961378</v>
       </c>
       <c r="M18">
-        <v>1.03777925460121</v>
+        <v>0.9646221809859014</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037584799734647</v>
+        <v>0.9822149556892743</v>
       </c>
       <c r="D19">
-        <v>1.040644386934441</v>
+        <v>1.003320243292306</v>
       </c>
       <c r="E19">
-        <v>1.03633900765288</v>
+        <v>0.9913696471164257</v>
       </c>
       <c r="F19">
-        <v>1.034603521870611</v>
+        <v>0.9507460311229214</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03854475549217</v>
+        <v>1.033672530134521</v>
       </c>
       <c r="J19">
-        <v>1.043650147534905</v>
+        <v>1.009828449394156</v>
       </c>
       <c r="K19">
-        <v>1.043938194574525</v>
+        <v>1.017017672909421</v>
       </c>
       <c r="L19">
-        <v>1.039647476027717</v>
+        <v>1.005273679957675</v>
       </c>
       <c r="M19">
-        <v>1.037917937894383</v>
+        <v>0.9654033410363921</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037118205170541</v>
+        <v>0.979468583121256</v>
       </c>
       <c r="D20">
-        <v>1.040280959803585</v>
+        <v>1.001210362091552</v>
       </c>
       <c r="E20">
-        <v>1.03593786077511</v>
+        <v>0.9891080703773099</v>
       </c>
       <c r="F20">
-        <v>1.033916677145478</v>
+        <v>0.9468402341671543</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038398924746609</v>
+        <v>1.032644988520949</v>
       </c>
       <c r="J20">
-        <v>1.043306790538943</v>
+        <v>1.007814560724164</v>
       </c>
       <c r="K20">
-        <v>1.043639612556752</v>
+        <v>1.015231962077217</v>
       </c>
       <c r="L20">
-        <v>1.039311618373345</v>
+        <v>1.003345183743077</v>
       </c>
       <c r="M20">
-        <v>1.03729751187399</v>
+        <v>0.9618870022133256</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035598854437976</v>
+        <v>0.970244840408261</v>
       </c>
       <c r="D21">
-        <v>1.039097319189624</v>
+        <v>0.9941325156454281</v>
       </c>
       <c r="E21">
-        <v>1.034631940858973</v>
+        <v>0.9815252677497115</v>
       </c>
       <c r="F21">
-        <v>1.031680550186303</v>
+        <v>0.9336712727477058</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037921976014176</v>
+        <v>1.029177984638642</v>
       </c>
       <c r="J21">
-        <v>1.042187539791546</v>
+        <v>1.001041529920539</v>
       </c>
       <c r="K21">
-        <v>1.042665968332122</v>
+        <v>1.009225908534954</v>
       </c>
       <c r="L21">
-        <v>1.03821717780776</v>
+        <v>0.9968653114368079</v>
       </c>
       <c r="M21">
-        <v>1.035276838109974</v>
+        <v>0.9500285247164743</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03464169185667</v>
+        <v>0.9641979566733515</v>
       </c>
       <c r="D22">
-        <v>1.038351476570501</v>
+        <v>0.9894996998621938</v>
       </c>
       <c r="E22">
-        <v>1.033809482690574</v>
+        <v>0.9765648596078657</v>
       </c>
       <c r="F22">
-        <v>1.030272118944649</v>
+        <v>0.924990857787793</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037619908275768</v>
+        <v>1.026893026402944</v>
       </c>
       <c r="J22">
-        <v>1.041481518360323</v>
+        <v>0.9965941254610107</v>
       </c>
       <c r="K22">
-        <v>1.042051530332815</v>
+        <v>1.005282079652579</v>
       </c>
       <c r="L22">
-        <v>1.037527087317498</v>
+        <v>0.992615318939624</v>
       </c>
       <c r="M22">
-        <v>1.034003511470126</v>
+        <v>0.9422106217923371</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035149283378646</v>
+        <v>0.967428484299289</v>
       </c>
       <c r="D23">
-        <v>1.038747019212882</v>
+        <v>0.9919740261855153</v>
       </c>
       <c r="E23">
-        <v>1.034245615633044</v>
+        <v>0.9792138819997469</v>
       </c>
       <c r="F23">
-        <v>1.031018996920251</v>
+        <v>0.9296332719441895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0377802487767</v>
+        <v>1.028114866068262</v>
       </c>
       <c r="J23">
-        <v>1.041856014169128</v>
+        <v>0.9989708011415585</v>
       </c>
       <c r="K23">
-        <v>1.042377472396081</v>
+        <v>1.007389631942763</v>
       </c>
       <c r="L23">
-        <v>1.037893106195083</v>
+        <v>0.9948860188615624</v>
       </c>
       <c r="M23">
-        <v>1.034678801426716</v>
+        <v>0.9463918217942443</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037143645910016</v>
+        <v>0.9796193366713881</v>
       </c>
       <c r="D24">
-        <v>1.040300776287467</v>
+        <v>1.001326149153387</v>
       </c>
       <c r="E24">
-        <v>1.03595973184435</v>
+        <v>0.9892321675072813</v>
       </c>
       <c r="F24">
-        <v>1.033954125230035</v>
+        <v>0.9470548032602366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038406883929308</v>
+        <v>1.032701451934908</v>
       </c>
       <c r="J24">
-        <v>1.043325516332057</v>
+        <v>1.007925141582189</v>
       </c>
       <c r="K24">
-        <v>1.043655897753533</v>
+        <v>1.015330016082063</v>
       </c>
       <c r="L24">
-        <v>1.03932993380344</v>
+        <v>1.003451054426964</v>
       </c>
       <c r="M24">
-        <v>1.03733134163685</v>
+        <v>0.9620801873308075</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039450048590257</v>
+        <v>0.9928204482884769</v>
       </c>
       <c r="D25">
-        <v>1.04209686261007</v>
+        <v>1.011477594313189</v>
       </c>
       <c r="E25">
-        <v>1.037943084584006</v>
+        <v>1.000119304986557</v>
       </c>
       <c r="F25">
-        <v>1.037349931550897</v>
+        <v>0.9657708877337723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039124616066789</v>
+        <v>1.037617182849026</v>
       </c>
       <c r="J25">
-        <v>1.045020967466597</v>
+        <v>1.0175918725263</v>
       </c>
       <c r="K25">
-        <v>1.04512973325593</v>
+        <v>1.023900310426603</v>
       </c>
       <c r="L25">
-        <v>1.04098889395836</v>
+        <v>1.012715769180975</v>
       </c>
       <c r="M25">
-        <v>1.040397597793815</v>
+        <v>0.9789248724680977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002707258698424</v>
+        <v>1.027225914060247</v>
       </c>
       <c r="D2">
-        <v>1.019094831605669</v>
+        <v>1.043018920794554</v>
       </c>
       <c r="E2">
-        <v>1.008299267281789</v>
+        <v>1.038389898803066</v>
       </c>
       <c r="F2">
-        <v>0.9797059344886604</v>
+        <v>1.047230070173038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041256288218889</v>
+        <v>1.05835582745661</v>
       </c>
       <c r="J2">
-        <v>1.024807296544727</v>
+        <v>1.048621716019214</v>
       </c>
       <c r="K2">
-        <v>1.030294403419655</v>
+        <v>1.05390978213145</v>
       </c>
       <c r="L2">
-        <v>1.019644178427193</v>
+        <v>1.049339106025852</v>
       </c>
       <c r="M2">
-        <v>0.9914554302074916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.058068410754447</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054529508813983</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049189080742093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009562380905847</v>
+        <v>1.032708434817615</v>
       </c>
       <c r="D3">
-        <v>1.024382551188386</v>
+        <v>1.046794585913209</v>
       </c>
       <c r="E3">
-        <v>1.013984092937472</v>
+        <v>1.042784582383599</v>
       </c>
       <c r="F3">
-        <v>0.9893347499876882</v>
+        <v>1.051192180613622</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043754105469833</v>
+        <v>1.059789711391206</v>
       </c>
       <c r="J3">
-        <v>1.029795717229599</v>
+        <v>1.052345480043695</v>
       </c>
       <c r="K3">
-        <v>1.034712675724729</v>
+        <v>1.056861784821083</v>
       </c>
       <c r="L3">
-        <v>1.02444111756562</v>
+        <v>1.052897798876482</v>
       </c>
       <c r="M3">
-        <v>1.000105938394549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.061209411571818</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.057015349125612</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051273722431542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01386217709931</v>
+        <v>1.036176495177994</v>
       </c>
       <c r="D4">
-        <v>1.027701474996563</v>
+        <v>1.049184910446918</v>
       </c>
       <c r="E4">
-        <v>1.017555356204266</v>
+        <v>1.045569700104437</v>
       </c>
       <c r="F4">
-        <v>0.9953628348338104</v>
+        <v>1.053704933132081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045308812668118</v>
+        <v>1.060682427784883</v>
       </c>
       <c r="J4">
-        <v>1.032917813176152</v>
+        <v>1.054697985759051</v>
       </c>
       <c r="K4">
-        <v>1.037476679549948</v>
+        <v>1.05872385784507</v>
       </c>
       <c r="L4">
-        <v>1.027446421896843</v>
+        <v>1.055147571274331</v>
       </c>
       <c r="M4">
-        <v>1.00551755043988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.063195674802448</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.058587306723533</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.052591211335548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01563911499927</v>
+        <v>1.037623706220151</v>
       </c>
       <c r="D5">
-        <v>1.029073514603684</v>
+        <v>1.050184934984751</v>
       </c>
       <c r="E5">
-        <v>1.019032468076371</v>
+        <v>1.046734816837618</v>
       </c>
       <c r="F5">
-        <v>0.997851760335724</v>
+        <v>1.054755909599064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045948386833835</v>
+        <v>1.061053259885617</v>
       </c>
       <c r="J5">
-        <v>1.034206391343346</v>
+        <v>1.055681150362544</v>
       </c>
       <c r="K5">
-        <v>1.038617136488153</v>
+        <v>1.059502793342305</v>
       </c>
       <c r="L5">
-        <v>1.028687507972122</v>
+        <v>1.05608880924029</v>
       </c>
       <c r="M5">
-        <v>1.007750929013399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.064026339095988</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05924470556853</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053149013706915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015935721247077</v>
+        <v>1.037874777928532</v>
       </c>
       <c r="D6">
-        <v>1.029302559839732</v>
+        <v>1.050361051600976</v>
       </c>
       <c r="E6">
-        <v>1.01927909867751</v>
+        <v>1.046939089950048</v>
       </c>
       <c r="F6">
-        <v>0.9982670931366882</v>
+        <v>1.054939448176997</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046054971203842</v>
+        <v>1.061119585564824</v>
       </c>
       <c r="J6">
-        <v>1.03442138221708</v>
+        <v>1.05585439439928</v>
       </c>
       <c r="K6">
-        <v>1.038807394386175</v>
+        <v>1.059641756639546</v>
       </c>
       <c r="L6">
-        <v>1.028894616366054</v>
+        <v>1.056255465768639</v>
       </c>
       <c r="M6">
-        <v>1.008123557153749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.064172869079324</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.059360671301281</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.053255860816909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013886038928425</v>
+        <v>1.036220668682792</v>
       </c>
       <c r="D7">
-        <v>1.027719897894724</v>
+        <v>1.04922243081763</v>
       </c>
       <c r="E7">
-        <v>1.017575186939103</v>
+        <v>1.045610925924723</v>
       </c>
       <c r="F7">
-        <v>0.9953962659362566</v>
+        <v>1.053740043537195</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045317412904816</v>
+        <v>1.060699683786765</v>
       </c>
       <c r="J7">
-        <v>1.032935123617062</v>
+        <v>1.054735363415871</v>
       </c>
       <c r="K7">
-        <v>1.037492001492238</v>
+        <v>1.05875816149139</v>
       </c>
       <c r="L7">
-        <v>1.027463091549959</v>
+        <v>1.055185523987012</v>
       </c>
       <c r="M7">
-        <v>1.005547553124446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.063227614233258</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05861258402714</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.052635236014974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005053288043844</v>
+        <v>1.029127602544808</v>
       </c>
       <c r="D8">
-        <v>1.020903916594414</v>
+        <v>1.044336908116397</v>
       </c>
       <c r="E8">
-        <v>1.010243570616947</v>
+        <v>1.039920724042112</v>
       </c>
       <c r="F8">
-        <v>0.9830039595047522</v>
+        <v>1.048606962501031</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042113629233001</v>
+        <v>1.058863454586129</v>
       </c>
       <c r="J8">
-        <v>1.026515913798621</v>
+        <v>1.049923340536088</v>
       </c>
       <c r="K8">
-        <v>1.031807984412681</v>
+        <v>1.054948019348685</v>
       </c>
       <c r="L8">
-        <v>1.021286551230192</v>
+        <v>1.050585789749597</v>
       </c>
       <c r="M8">
-        <v>0.9944191833107507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.059166440995059</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.055398509139851</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049945750743909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9883551389547298</v>
+        <v>1.015941213964275</v>
       </c>
       <c r="D9">
-        <v>1.008041218917445</v>
+        <v>1.035262313391253</v>
       </c>
       <c r="E9">
-        <v>0.9964322253632024</v>
+        <v>1.029376889036684</v>
       </c>
       <c r="F9">
-        <v>0.9594554880554401</v>
+        <v>1.039114186742921</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035961089539457</v>
+        <v>1.055328492187466</v>
       </c>
       <c r="J9">
-        <v>1.014325916587994</v>
+        <v>1.040943338503102</v>
       </c>
       <c r="K9">
-        <v>1.021005166383355</v>
+        <v>1.047808065449927</v>
       </c>
       <c r="L9">
-        <v>1.009583453659681</v>
+        <v>1.042010671874378</v>
       </c>
       <c r="M9">
-        <v>0.9732425074986104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.051603010334627</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.049412657608313</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044894300734711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763129583568477</v>
+        <v>1.006814559315893</v>
       </c>
       <c r="D10">
-        <v>0.9987874369123916</v>
+        <v>1.029025674444223</v>
       </c>
       <c r="E10">
-        <v>0.9865116301394448</v>
+        <v>1.022160697455903</v>
       </c>
       <c r="F10">
-        <v>0.9423440473526423</v>
+        <v>1.032648235845228</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031461537390935</v>
+        <v>1.052835561607357</v>
       </c>
       <c r="J10">
-        <v>1.005498946150432</v>
+        <v>1.034760390563012</v>
       </c>
       <c r="K10">
-        <v>1.013178619127624</v>
+        <v>1.042889918162937</v>
       </c>
       <c r="L10">
-        <v>1.001128768068885</v>
+        <v>1.036141038495351</v>
       </c>
       <c r="M10">
-        <v>0.9578386380144195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.046452017708808</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045387041450597</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041433563789568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9708431403513006</v>
+        <v>1.003961528516352</v>
       </c>
       <c r="D11">
-        <v>0.9945912232299872</v>
+        <v>1.027282107398532</v>
       </c>
       <c r="E11">
-        <v>0.9820165303436572</v>
+        <v>1.020290779461109</v>
       </c>
       <c r="F11">
-        <v>0.9345280248449894</v>
+        <v>1.031136537507342</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029403572505331</v>
+        <v>1.052230443461862</v>
       </c>
       <c r="J11">
-        <v>1.001481276602269</v>
+        <v>1.033170426893695</v>
       </c>
       <c r="K11">
-        <v>1.009615867119224</v>
+        <v>1.041707232635955</v>
       </c>
       <c r="L11">
-        <v>0.9972857485660753</v>
+        <v>1.034839924482798</v>
       </c>
       <c r="M11">
-        <v>0.9508001096700565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.045494219779633</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045061977780806</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04062995245283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9687690415493491</v>
+        <v>1.003330909474228</v>
       </c>
       <c r="D12">
-        <v>0.9930012865159873</v>
+        <v>1.026997908208624</v>
       </c>
       <c r="E12">
-        <v>0.9803138484373725</v>
+        <v>1.020076446830704</v>
       </c>
       <c r="F12">
-        <v>0.9315563678933966</v>
+        <v>1.031062807495664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028621147196158</v>
+        <v>1.052187872093137</v>
       </c>
       <c r="J12">
-        <v>0.9999565948992191</v>
+        <v>1.03299496517869</v>
       </c>
       <c r="K12">
-        <v>1.008263810481463</v>
+        <v>1.041625526519827</v>
       </c>
       <c r="L12">
-        <v>0.9958281788023849</v>
+        <v>1.034828863169862</v>
       </c>
       <c r="M12">
-        <v>0.9481238197795743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.045618146206684</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045484136651358</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040572184402087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9692159304507717</v>
+        <v>1.004408356376146</v>
       </c>
       <c r="D13">
-        <v>0.9933437989593238</v>
+        <v>1.027853615435819</v>
       </c>
       <c r="E13">
-        <v>0.9806806267426742</v>
+        <v>1.021160005258675</v>
       </c>
       <c r="F13">
-        <v>0.9321970268697695</v>
+        <v>1.032129590732135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028789822069961</v>
+        <v>1.052599065269276</v>
       </c>
       <c r="J13">
-        <v>1.000285160331618</v>
+        <v>1.033935368170089</v>
       </c>
       <c r="K13">
-        <v>1.008555175313632</v>
+        <v>1.042423646018456</v>
       </c>
       <c r="L13">
-        <v>0.9961422432602068</v>
+        <v>1.035850026975997</v>
       </c>
       <c r="M13">
-        <v>0.9487008088757076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.046624025160473</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046554359376787</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041134000009611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.97067258411228</v>
+        <v>1.005930934380408</v>
       </c>
       <c r="D14">
-        <v>0.994460454544362</v>
+        <v>1.028965521787636</v>
       </c>
       <c r="E14">
-        <v>0.9818764785733571</v>
+        <v>1.022500434554811</v>
       </c>
       <c r="F14">
-        <v>0.9342838297632946</v>
+        <v>1.033388622128892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029339273999845</v>
+        <v>1.053090458378636</v>
       </c>
       <c r="J14">
-        <v>1.001355924427556</v>
+        <v>1.035094348854943</v>
       </c>
       <c r="K14">
-        <v>1.009504707319702</v>
+        <v>1.043377391748346</v>
       </c>
       <c r="L14">
-        <v>0.9971658968130301</v>
+        <v>1.037026573892833</v>
       </c>
       <c r="M14">
-        <v>0.9505801902259055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.047723380423131</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047595681142728</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041809732007767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9715643333918897</v>
+        <v>1.006686706628571</v>
       </c>
       <c r="D15">
-        <v>0.995144226280562</v>
+        <v>1.029498026905277</v>
       </c>
       <c r="E15">
-        <v>0.9826088105670423</v>
+        <v>1.023125867369918</v>
       </c>
       <c r="F15">
-        <v>0.9355602685175219</v>
+        <v>1.033962160487751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029675373699419</v>
+        <v>1.05331586767984</v>
       </c>
       <c r="J15">
-        <v>1.002011275776837</v>
+        <v>1.035634510006854</v>
       </c>
       <c r="K15">
-        <v>1.010085859556753</v>
+        <v>1.043815337691007</v>
       </c>
       <c r="L15">
-        <v>0.9977925256669801</v>
+        <v>1.037554874144971</v>
       </c>
       <c r="M15">
-        <v>0.9517297283959703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.048202280836331</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048011534223486</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042125187346164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9766702629913461</v>
+        <v>1.01035887497618</v>
       </c>
       <c r="D16">
-        <v>0.9990617051292746</v>
+        <v>1.03198710812095</v>
       </c>
       <c r="E16">
-        <v>0.9868055041207696</v>
+        <v>1.025981544290262</v>
       </c>
       <c r="F16">
-        <v>0.9428536038130091</v>
+        <v>1.036523708616814</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031595682105285</v>
+        <v>1.054316112729039</v>
       </c>
       <c r="J16">
-        <v>1.005761223031672</v>
+        <v>1.038091952524783</v>
       </c>
       <c r="K16">
-        <v>1.01341119384295</v>
+        <v>1.045766828804952</v>
       </c>
       <c r="L16">
-        <v>1.001379755206099</v>
+        <v>1.039861673109716</v>
       </c>
       <c r="M16">
-        <v>0.9582974664061042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.050228573034064</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049574648934253</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043508063608071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9798020483669725</v>
+        <v>1.012379590164789</v>
       </c>
       <c r="D17">
-        <v>1.001466486277862</v>
+        <v>1.033315770745581</v>
       </c>
       <c r="E17">
-        <v>0.9893825789267334</v>
+        <v>1.027473174211066</v>
       </c>
       <c r="F17">
-        <v>0.9473148314787374</v>
+        <v>1.037827341894894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032769875819137</v>
+        <v>1.054823083994819</v>
       </c>
       <c r="J17">
-        <v>1.008059159063204</v>
+        <v>1.039370212892047</v>
       </c>
       <c r="K17">
-        <v>1.015448851443189</v>
+        <v>1.046763825409727</v>
       </c>
       <c r="L17">
-        <v>1.003579366769464</v>
+        <v>1.041016056535174</v>
       </c>
       <c r="M17">
-        <v>0.9623142994335484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.05120310824774</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05021682419719</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044215518560845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9816044143570803</v>
+        <v>1.013133312898306</v>
       </c>
       <c r="D18">
-        <v>1.002851105647056</v>
+        <v>1.033730743705103</v>
       </c>
       <c r="E18">
-        <v>0.9908667297841994</v>
+        <v>1.027879239588772</v>
       </c>
       <c r="F18">
-        <v>0.9498783088588837</v>
+        <v>1.038113130481215</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033444300441473</v>
+        <v>1.054935434099994</v>
       </c>
       <c r="J18">
-        <v>1.00938086220573</v>
+        <v>1.039709179167594</v>
       </c>
       <c r="K18">
-        <v>1.016620806106182</v>
+        <v>1.046991578219566</v>
       </c>
       <c r="L18">
-        <v>1.004844999961378</v>
+        <v>1.041233488769111</v>
       </c>
       <c r="M18">
-        <v>0.9646221809859014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.051304885916666</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.050061510643286</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044365030696686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9822149556892743</v>
+        <v>1.012775019633922</v>
       </c>
       <c r="D19">
-        <v>1.003320243292306</v>
+        <v>1.033352229254522</v>
       </c>
       <c r="E19">
-        <v>0.9913696471164257</v>
+        <v>1.027338152479252</v>
       </c>
       <c r="F19">
-        <v>0.9507460311229214</v>
+        <v>1.0375040850448</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033672530134521</v>
+        <v>1.054710122029272</v>
       </c>
       <c r="J19">
-        <v>1.009828449394156</v>
+        <v>1.039232080895054</v>
       </c>
       <c r="K19">
-        <v>1.017017672909421</v>
+        <v>1.046557471196367</v>
       </c>
       <c r="L19">
-        <v>1.005273679957675</v>
+        <v>1.040639002815475</v>
       </c>
       <c r="M19">
-        <v>0.9654033410363921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.050644150099017</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049216494598578</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044064438430659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.979468583121256</v>
+        <v>1.009264459875598</v>
       </c>
       <c r="D20">
-        <v>1.001210362091552</v>
+        <v>1.030717674562945</v>
       </c>
       <c r="E20">
-        <v>0.9891080703773099</v>
+        <v>1.024115342835838</v>
       </c>
       <c r="F20">
-        <v>0.9468402341671543</v>
+        <v>1.034393118161005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032644988520949</v>
+        <v>1.053525266177984</v>
       </c>
       <c r="J20">
-        <v>1.007814560724164</v>
+        <v>1.036442864964227</v>
       </c>
       <c r="K20">
-        <v>1.015231962077217</v>
+        <v>1.044241071505219</v>
       </c>
       <c r="L20">
-        <v>1.003345183743077</v>
+        <v>1.037747005041229</v>
       </c>
       <c r="M20">
-        <v>0.9618870022133256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.047857013536175</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046488476495314</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042430586337038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.970244840408261</v>
+        <v>1.002127669824716</v>
       </c>
       <c r="D21">
-        <v>0.9941325156454281</v>
+        <v>1.02580773646499</v>
       </c>
       <c r="E21">
-        <v>0.9815252677497115</v>
+        <v>1.018412743667842</v>
       </c>
       <c r="F21">
-        <v>0.9336712727477058</v>
+        <v>1.029255255612712</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029177984638642</v>
+        <v>1.051514067389256</v>
       </c>
       <c r="J21">
-        <v>1.001041529920539</v>
+        <v>1.031536702600912</v>
       </c>
       <c r="K21">
-        <v>1.009225908534954</v>
+        <v>1.040316131234428</v>
       </c>
       <c r="L21">
-        <v>0.9968653114368079</v>
+        <v>1.033053480492966</v>
       </c>
       <c r="M21">
-        <v>0.9500285247164743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.043702795355017</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043160216765061</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039658780388286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9641979566733515</v>
+        <v>0.9975602082049327</v>
       </c>
       <c r="D22">
-        <v>0.9894996998621938</v>
+        <v>1.022675721067861</v>
       </c>
       <c r="E22">
-        <v>0.9765648596078657</v>
+        <v>1.014786725483687</v>
       </c>
       <c r="F22">
-        <v>0.924990857787793</v>
+        <v>1.026005073737573</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026893026402944</v>
+        <v>1.050218574431427</v>
       </c>
       <c r="J22">
-        <v>0.9965941254610107</v>
+        <v>1.028407860841568</v>
       </c>
       <c r="K22">
-        <v>1.005282079652579</v>
+        <v>1.037810965466829</v>
       </c>
       <c r="L22">
-        <v>0.992615318939624</v>
+        <v>1.030070837607412</v>
       </c>
       <c r="M22">
-        <v>0.9422106217923371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.041078387912998</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041083178893518</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037874131245664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.967428484299289</v>
+        <v>0.9999668355781244</v>
       </c>
       <c r="D23">
-        <v>0.9919740261855153</v>
+        <v>1.024318799345947</v>
       </c>
       <c r="E23">
-        <v>0.9792138819997469</v>
+        <v>1.016689490558233</v>
       </c>
       <c r="F23">
-        <v>0.9296332719441895</v>
+        <v>1.027713137019896</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028114866068262</v>
+        <v>1.050897388206656</v>
       </c>
       <c r="J23">
-        <v>0.9989708011415585</v>
+        <v>1.030049244725197</v>
       </c>
       <c r="K23">
-        <v>1.007389631942763</v>
+        <v>1.039121389421418</v>
       </c>
       <c r="L23">
-        <v>0.9948860188615624</v>
+        <v>1.031632092136233</v>
       </c>
       <c r="M23">
-        <v>0.9463918217942443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.04245430336598</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042172122022271</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038791062329813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9796193366713881</v>
+        <v>1.009225388220844</v>
       </c>
       <c r="D24">
-        <v>1.001326149153387</v>
+        <v>1.03066203792306</v>
       </c>
       <c r="E24">
-        <v>0.9892321675072813</v>
+        <v>1.0240390030055</v>
       </c>
       <c r="F24">
-        <v>0.9470548032602366</v>
+        <v>1.034311689938099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032701451934908</v>
+        <v>1.053488984769711</v>
       </c>
       <c r="J24">
-        <v>1.007925141582189</v>
+        <v>1.036372881575534</v>
       </c>
       <c r="K24">
-        <v>1.015330016082063</v>
+        <v>1.044171271671735</v>
       </c>
       <c r="L24">
-        <v>1.003451054426964</v>
+        <v>1.037656720510303</v>
       </c>
       <c r="M24">
-        <v>0.9620801873308075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.047761905073692</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046372711090631</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042354069235489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9928204482884769</v>
+        <v>1.01947492976898</v>
       </c>
       <c r="D25">
-        <v>1.011477594313189</v>
+        <v>1.037702576580889</v>
       </c>
       <c r="E25">
-        <v>1.000119304986557</v>
+        <v>1.032207256227022</v>
       </c>
       <c r="F25">
-        <v>0.9657708877337723</v>
+        <v>1.041656457733744</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037617182849026</v>
+        <v>1.05629754471798</v>
       </c>
       <c r="J25">
-        <v>1.0175918725263</v>
+        <v>1.043364201635138</v>
       </c>
       <c r="K25">
-        <v>1.023900310426603</v>
+        <v>1.049742501835686</v>
       </c>
       <c r="L25">
-        <v>1.012715769180975</v>
+        <v>1.044325353969095</v>
       </c>
       <c r="M25">
-        <v>0.9789248724680977</v>
+        <v>1.053640782183313</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051025396032189</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046290295583149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027225914060247</v>
+        <v>1.02452280365632</v>
       </c>
       <c r="D2">
-        <v>1.043018920794554</v>
+        <v>1.039997863257468</v>
       </c>
       <c r="E2">
-        <v>1.038389898803066</v>
+        <v>1.036292231195172</v>
       </c>
       <c r="F2">
-        <v>1.047230070173038</v>
+        <v>1.044998974066418</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05835582745661</v>
+        <v>1.056821221017987</v>
       </c>
       <c r="J2">
-        <v>1.048621716019214</v>
+        <v>1.045993988913798</v>
       </c>
       <c r="K2">
-        <v>1.05390978213145</v>
+        <v>1.050926729642848</v>
       </c>
       <c r="L2">
-        <v>1.049339106025852</v>
+        <v>1.047268092545392</v>
       </c>
       <c r="M2">
-        <v>1.058068410754447</v>
+        <v>1.055865074804933</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054529508813983</v>
+        <v>1.052785747222182</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049189080742093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0470885164068</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025122681193408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032708434817615</v>
+        <v>1.029639125569985</v>
       </c>
       <c r="D3">
-        <v>1.046794585913209</v>
+        <v>1.043388570645537</v>
       </c>
       <c r="E3">
-        <v>1.042784582383599</v>
+        <v>1.040336241448883</v>
       </c>
       <c r="F3">
-        <v>1.051192180613622</v>
+        <v>1.048648790702173</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059789711391206</v>
+        <v>1.058057774461701</v>
       </c>
       <c r="J3">
-        <v>1.052345480043695</v>
+        <v>1.049353161952064</v>
       </c>
       <c r="K3">
-        <v>1.056861784821083</v>
+        <v>1.053494828011833</v>
       </c>
       <c r="L3">
-        <v>1.052897798876482</v>
+        <v>1.050477769906283</v>
       </c>
       <c r="M3">
-        <v>1.061209411571818</v>
+        <v>1.058694858074521</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057015349125612</v>
+        <v>1.055025290295128</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051273722431542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048901432556172</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025741832307558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036176495177994</v>
+        <v>1.032879662702333</v>
       </c>
       <c r="D4">
-        <v>1.049184910446918</v>
+        <v>1.045538233660745</v>
       </c>
       <c r="E4">
-        <v>1.045569700104437</v>
+        <v>1.042903489141313</v>
       </c>
       <c r="F4">
-        <v>1.053704933132081</v>
+        <v>1.05096699716776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060682427784883</v>
+        <v>1.058826865763861</v>
       </c>
       <c r="J4">
-        <v>1.054697985759051</v>
+        <v>1.051478125163823</v>
       </c>
       <c r="K4">
-        <v>1.05872385784507</v>
+        <v>1.055116445068354</v>
       </c>
       <c r="L4">
-        <v>1.055147571274331</v>
+        <v>1.052510278660016</v>
       </c>
       <c r="M4">
-        <v>1.063195674802448</v>
+        <v>1.060486878104507</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058587306723533</v>
+        <v>1.056443524834865</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052591211335548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050048986624868</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026130256797057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037623706220151</v>
+        <v>1.03423215772443</v>
       </c>
       <c r="D5">
-        <v>1.050184934984751</v>
+        <v>1.046438008331167</v>
       </c>
       <c r="E5">
-        <v>1.046734816837618</v>
+        <v>1.043977626857292</v>
       </c>
       <c r="F5">
-        <v>1.054755909599064</v>
+        <v>1.051936862878866</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061053259885617</v>
+        <v>1.059146142838023</v>
       </c>
       <c r="J5">
-        <v>1.055681150362544</v>
+        <v>1.05236636662038</v>
       </c>
       <c r="K5">
-        <v>1.059502793342305</v>
+        <v>1.055795122898907</v>
       </c>
       <c r="L5">
-        <v>1.05608880924029</v>
+        <v>1.053360706092592</v>
       </c>
       <c r="M5">
-        <v>1.064026339095988</v>
+        <v>1.06123648359633</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05924470556853</v>
+        <v>1.057036774341066</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053149013706915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050536618456516</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026293568716597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037874777928532</v>
+        <v>1.034465994258311</v>
       </c>
       <c r="D6">
-        <v>1.050361051600976</v>
+        <v>1.046596192457747</v>
       </c>
       <c r="E6">
-        <v>1.046939089950048</v>
+        <v>1.044164982688099</v>
       </c>
       <c r="F6">
-        <v>1.054939448176997</v>
+        <v>1.052105621388141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061119585564824</v>
+        <v>1.059203248757601</v>
       </c>
       <c r="J6">
-        <v>1.05585439439928</v>
+        <v>1.052522359218251</v>
       </c>
       <c r="K6">
-        <v>1.059641756639546</v>
+        <v>1.055916158375712</v>
       </c>
       <c r="L6">
-        <v>1.056255465768639</v>
+        <v>1.053510485788983</v>
       </c>
       <c r="M6">
-        <v>1.064172869079324</v>
+        <v>1.061368249883107</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059360671301281</v>
+        <v>1.057141056193006</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053255860816909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050631666621702</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026324314345215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036220668682792</v>
+        <v>1.03291853730422</v>
       </c>
       <c r="D7">
-        <v>1.04922243081763</v>
+        <v>1.045571061613158</v>
       </c>
       <c r="E7">
-        <v>1.045610925924723</v>
+        <v>1.042938620603405</v>
       </c>
       <c r="F7">
-        <v>1.053740043537195</v>
+        <v>1.050997532174</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060699683786765</v>
+        <v>1.058841725937962</v>
       </c>
       <c r="J7">
-        <v>1.054735363415871</v>
+        <v>1.051510291407996</v>
       </c>
       <c r="K7">
-        <v>1.05875816149139</v>
+        <v>1.055146090536368</v>
       </c>
       <c r="L7">
-        <v>1.055185523987012</v>
+        <v>1.052542190888899</v>
       </c>
       <c r="M7">
-        <v>1.063227614233258</v>
+        <v>1.060514278928594</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05861258402714</v>
+        <v>1.056465210283567</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052635236014974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050091735133766</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026141904377096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029127602544808</v>
+        <v>1.026293142070486</v>
       </c>
       <c r="D8">
-        <v>1.044336908116397</v>
+        <v>1.041179347716791</v>
       </c>
       <c r="E8">
-        <v>1.039920724042112</v>
+        <v>1.037695899530125</v>
       </c>
       <c r="F8">
-        <v>1.048606962501031</v>
+        <v>1.046263909508733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058863454586129</v>
+        <v>1.057258951158001</v>
       </c>
       <c r="J8">
-        <v>1.049923340536088</v>
+        <v>1.047165188270617</v>
       </c>
       <c r="K8">
-        <v>1.054948019348685</v>
+        <v>1.051828978272144</v>
       </c>
       <c r="L8">
-        <v>1.050585789749597</v>
+        <v>1.048388363405426</v>
       </c>
       <c r="M8">
-        <v>1.059166440995059</v>
+        <v>1.056851654982723</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055398509139851</v>
+        <v>1.053566545864139</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049945750743909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047751318861614</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025346604168452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015941213964275</v>
+        <v>1.014016980674571</v>
       </c>
       <c r="D9">
-        <v>1.035262313391253</v>
+        <v>1.03305059796872</v>
       </c>
       <c r="E9">
-        <v>1.029376889036684</v>
+        <v>1.028024010260011</v>
       </c>
       <c r="F9">
-        <v>1.039114186742921</v>
+        <v>1.037543660546736</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055328492187466</v>
+        <v>1.05420725442314</v>
       </c>
       <c r="J9">
-        <v>1.040943338503102</v>
+        <v>1.03908429101389</v>
       </c>
       <c r="K9">
-        <v>1.047808065449927</v>
+        <v>1.045629281944926</v>
       </c>
       <c r="L9">
-        <v>1.042010671874378</v>
+        <v>1.040678210159063</v>
       </c>
       <c r="M9">
-        <v>1.051603010334627</v>
+        <v>1.05005563077227</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049412657608313</v>
+        <v>1.048188024324918</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044894300734711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043364410864268</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023832416386798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006814559315893</v>
+        <v>1.005527751730459</v>
       </c>
       <c r="D10">
-        <v>1.029025674444223</v>
+        <v>1.027470845605169</v>
       </c>
       <c r="E10">
-        <v>1.022160697455903</v>
+        <v>1.021410075420143</v>
       </c>
       <c r="F10">
-        <v>1.032648235845228</v>
+        <v>1.031614115257093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052835561607357</v>
+        <v>1.052048546183843</v>
       </c>
       <c r="J10">
-        <v>1.034760390563012</v>
+        <v>1.033523756788508</v>
       </c>
       <c r="K10">
-        <v>1.042889918162937</v>
+        <v>1.041361208614207</v>
       </c>
       <c r="L10">
-        <v>1.036141038495351</v>
+        <v>1.035403232906574</v>
       </c>
       <c r="M10">
-        <v>1.046452017708808</v>
+        <v>1.04543510118174</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045387041450597</v>
+        <v>1.044582274557858</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041433563789568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04036501296633</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022796591893564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003961528516352</v>
+        <v>1.002706803386494</v>
       </c>
       <c r="D11">
-        <v>1.027282107398532</v>
+        <v>1.025800402220197</v>
       </c>
       <c r="E11">
-        <v>1.020290779461109</v>
+        <v>1.019516321600657</v>
       </c>
       <c r="F11">
-        <v>1.031136537507342</v>
+        <v>1.030126665378126</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052230443461862</v>
+        <v>1.051480908418261</v>
       </c>
       <c r="J11">
-        <v>1.033170426893695</v>
+        <v>1.031967408117027</v>
       </c>
       <c r="K11">
-        <v>1.041707232635955</v>
+        <v>1.040251628500088</v>
       </c>
       <c r="L11">
-        <v>1.034839924482798</v>
+        <v>1.034079340739273</v>
       </c>
       <c r="M11">
-        <v>1.045494219779633</v>
+        <v>1.044501954716218</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045061977780806</v>
+        <v>1.044277108386594</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04062995245283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039616326119466</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022677099901124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003330909474228</v>
+        <v>1.001994104651827</v>
       </c>
       <c r="D12">
-        <v>1.026997908208624</v>
+        <v>1.025462310984624</v>
       </c>
       <c r="E12">
-        <v>1.020076446830704</v>
+        <v>1.019183538257034</v>
       </c>
       <c r="F12">
-        <v>1.031062807495664</v>
+        <v>1.029982316341677</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052187872093137</v>
+        <v>1.051411242804269</v>
       </c>
       <c r="J12">
-        <v>1.03299496517869</v>
+        <v>1.03171430950277</v>
       </c>
       <c r="K12">
-        <v>1.041625526519827</v>
+        <v>1.040117428098729</v>
       </c>
       <c r="L12">
-        <v>1.034828863169862</v>
+        <v>1.033952214925985</v>
       </c>
       <c r="M12">
-        <v>1.045618146206684</v>
+        <v>1.044556795470587</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045484136651358</v>
+        <v>1.04464490180958</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040572184402087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039521445152907</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022755212489854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004408356376146</v>
+        <v>1.002891131020358</v>
       </c>
       <c r="D13">
-        <v>1.027853615435819</v>
+        <v>1.026158298385309</v>
       </c>
       <c r="E13">
-        <v>1.021160005258675</v>
+        <v>1.020062578194409</v>
       </c>
       <c r="F13">
-        <v>1.032129590732135</v>
+        <v>1.030896609609087</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052599065269276</v>
+        <v>1.051741592114071</v>
       </c>
       <c r="J13">
-        <v>1.033935368170089</v>
+        <v>1.032481459547984</v>
       </c>
       <c r="K13">
-        <v>1.042423646018456</v>
+        <v>1.040758527398107</v>
       </c>
       <c r="L13">
-        <v>1.035850026975997</v>
+        <v>1.034772468069367</v>
       </c>
       <c r="M13">
-        <v>1.046624025160473</v>
+        <v>1.04541275882473</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046554359376787</v>
+        <v>1.045596820485785</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041134000009611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039971991733551</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023005818859063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005930934380408</v>
+        <v>1.004246241628848</v>
       </c>
       <c r="D14">
-        <v>1.028965521787636</v>
+        <v>1.027113059631522</v>
       </c>
       <c r="E14">
-        <v>1.022500434554811</v>
+        <v>1.021224507459892</v>
       </c>
       <c r="F14">
-        <v>1.033388622128892</v>
+        <v>1.032014525912984</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053090458378636</v>
+        <v>1.052153329004535</v>
       </c>
       <c r="J14">
-        <v>1.035094348854943</v>
+        <v>1.033478835969979</v>
       </c>
       <c r="K14">
-        <v>1.043377391748346</v>
+        <v>1.041557480943285</v>
       </c>
       <c r="L14">
-        <v>1.037026573892833</v>
+        <v>1.035773420594622</v>
       </c>
       <c r="M14">
-        <v>1.047723380423131</v>
+        <v>1.046373148371841</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047595681142728</v>
+        <v>1.046528428416856</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041809732007767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040538411969356</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023258535567221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006686706628571</v>
+        <v>1.004937239340537</v>
       </c>
       <c r="D15">
-        <v>1.029498026905277</v>
+        <v>1.02758191242257</v>
       </c>
       <c r="E15">
-        <v>1.023125867369918</v>
+        <v>1.021784711927278</v>
       </c>
       <c r="F15">
-        <v>1.033962160487751</v>
+        <v>1.032533599350264</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05331586767984</v>
+        <v>1.05234643236569</v>
       </c>
       <c r="J15">
-        <v>1.035634510006854</v>
+        <v>1.033956200976155</v>
       </c>
       <c r="K15">
-        <v>1.043815337691007</v>
+        <v>1.041932621657027</v>
       </c>
       <c r="L15">
-        <v>1.037554874144971</v>
+        <v>1.036237457717126</v>
       </c>
       <c r="M15">
-        <v>1.048202280836331</v>
+        <v>1.046798327378931</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048011534223486</v>
+        <v>1.046901847703404</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042125187346164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040810033684875</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023362847116293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,105 +1307,123 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01035887497618</v>
+        <v>1.008377752580706</v>
       </c>
       <c r="D16">
-        <v>1.03198710812095</v>
+        <v>1.02982577816524</v>
       </c>
       <c r="E16">
-        <v>1.025981544290262</v>
+        <v>1.024430699395282</v>
       </c>
       <c r="F16">
-        <v>1.036523708616814</v>
+        <v>1.034900989983769</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054316112729039</v>
+        <v>1.053221944814386</v>
       </c>
       <c r="J16">
-        <v>1.038091952524783</v>
+        <v>1.036187142124912</v>
       </c>
       <c r="K16">
-        <v>1.045766828804952</v>
+        <v>1.043641460740337</v>
       </c>
       <c r="L16">
-        <v>1.039861673109716</v>
+        <v>1.038337003859639</v>
       </c>
       <c r="M16">
-        <v>1.050228573034064</v>
+        <v>1.048632533115271</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049574648934253</v>
+        <v>1.048313100297791</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043508063608071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042021641662659</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.0237632267812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.012379590164789</v>
+        <v>1.010306725374312</v>
       </c>
       <c r="D17">
-        <v>1.033315770745581</v>
+        <v>1.031047333937308</v>
       </c>
       <c r="E17">
-        <v>1.027473174211066</v>
+        <v>1.025852547584561</v>
       </c>
       <c r="F17">
-        <v>1.037827341894894</v>
+        <v>1.036127972144287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054823083994819</v>
+        <v>1.053674260111742</v>
       </c>
       <c r="J17">
-        <v>1.039370212892047</v>
+        <v>1.037374512951622</v>
       </c>
       <c r="K17">
-        <v>1.046763825409727</v>
+        <v>1.044532042351227</v>
       </c>
       <c r="L17">
-        <v>1.041016056535174</v>
+        <v>1.039421979392873</v>
       </c>
       <c r="M17">
-        <v>1.05120310824774</v>
+        <v>1.04953087251948</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05021682419719</v>
+        <v>1.048894917779449</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044215518560845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042654103648742</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023937495147018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013133312898306</v>
+        <v>1.011089953183153</v>
       </c>
       <c r="D18">
-        <v>1.033730743705103</v>
+        <v>1.031472358218861</v>
       </c>
       <c r="E18">
-        <v>1.027879239588772</v>
+        <v>1.026314293687774</v>
       </c>
       <c r="F18">
-        <v>1.038113130481215</v>
+        <v>1.036439432115335</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054935434099994</v>
+        <v>1.053791461887615</v>
       </c>
       <c r="J18">
-        <v>1.039709179167594</v>
+        <v>1.037740444499641</v>
       </c>
       <c r="K18">
-        <v>1.046991578219566</v>
+        <v>1.044769085127363</v>
       </c>
       <c r="L18">
-        <v>1.041233488769111</v>
+        <v>1.039693757704206</v>
       </c>
       <c r="M18">
-        <v>1.051304885916666</v>
+        <v>1.049657481634291</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050061510643286</v>
+        <v>1.048758965837433</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044365030696686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042809038846632</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023917557241881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012775019633922</v>
+        <v>1.010866035628853</v>
       </c>
       <c r="D19">
-        <v>1.033352229254522</v>
+        <v>1.031206187736761</v>
       </c>
       <c r="E19">
-        <v>1.027338152479252</v>
+        <v>1.025935793339616</v>
       </c>
       <c r="F19">
-        <v>1.0375040850448</v>
+        <v>1.0359445907433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054710122029272</v>
+        <v>1.053622998578182</v>
       </c>
       <c r="J19">
-        <v>1.039232080895054</v>
+        <v>1.037392464059861</v>
       </c>
       <c r="K19">
-        <v>1.046557471196367</v>
+        <v>1.044445382316688</v>
       </c>
       <c r="L19">
-        <v>1.040639002815475</v>
+        <v>1.039259144323634</v>
       </c>
       <c r="M19">
-        <v>1.050644150099017</v>
+        <v>1.049109058770482</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049216494598578</v>
+        <v>1.048002361808794</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044064438430659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042587135595665</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023736729048396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009264459875598</v>
+        <v>1.00779411626688</v>
       </c>
       <c r="D20">
-        <v>1.030717674562945</v>
+        <v>1.028977803967241</v>
       </c>
       <c r="E20">
-        <v>1.024115342835838</v>
+        <v>1.023187710999638</v>
       </c>
       <c r="F20">
-        <v>1.034393118161005</v>
+        <v>1.033204711834822</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053525266177984</v>
+        <v>1.052644239786285</v>
       </c>
       <c r="J20">
-        <v>1.036442864964227</v>
+        <v>1.035027859140911</v>
       </c>
       <c r="K20">
-        <v>1.044241071505219</v>
+        <v>1.04252955809314</v>
       </c>
       <c r="L20">
-        <v>1.037747005041229</v>
+        <v>1.036834728652391</v>
       </c>
       <c r="M20">
-        <v>1.047857013536175</v>
+        <v>1.046687786812209</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046488476495314</v>
+        <v>1.04556316402957</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042430586337038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04123690172588</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023094967370358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002127669824716</v>
+        <v>1.001200251039839</v>
       </c>
       <c r="D21">
-        <v>1.02580773646499</v>
+        <v>1.024614862533815</v>
       </c>
       <c r="E21">
-        <v>1.018412743667842</v>
+        <v>1.018007127478821</v>
       </c>
       <c r="F21">
-        <v>1.029255255612712</v>
+        <v>1.028522138468044</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051514067389256</v>
+        <v>1.0509107099709</v>
       </c>
       <c r="J21">
-        <v>1.031536702600912</v>
+        <v>1.030647875823576</v>
       </c>
       <c r="K21">
-        <v>1.040316131234428</v>
+        <v>1.039144437475067</v>
       </c>
       <c r="L21">
-        <v>1.033053480492966</v>
+        <v>1.032655195607882</v>
       </c>
       <c r="M21">
-        <v>1.043702795355017</v>
+        <v>1.042982574797392</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043160216765061</v>
+        <v>1.042590212353259</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039658780388286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038847112951156</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022238755924467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9975602082049327</v>
+        <v>0.9969828048283774</v>
       </c>
       <c r="D22">
-        <v>1.022675721067861</v>
+        <v>1.021833304312828</v>
       </c>
       <c r="E22">
-        <v>1.014786725483687</v>
+        <v>1.014715228445533</v>
       </c>
       <c r="F22">
-        <v>1.026005073737573</v>
+        <v>1.025564007119504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050218574431427</v>
+        <v>1.049792780941104</v>
       </c>
       <c r="J22">
-        <v>1.028407860841568</v>
+        <v>1.027855999121428</v>
       </c>
       <c r="K22">
-        <v>1.037810965466829</v>
+        <v>1.036984302260974</v>
       </c>
       <c r="L22">
-        <v>1.030070837607412</v>
+        <v>1.030000703586707</v>
       </c>
       <c r="M22">
-        <v>1.041078387912998</v>
+        <v>1.040645495567545</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041083178893518</v>
+        <v>1.040740573822297</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037874131245664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037305120847168</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021693007425101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9999668355781244</v>
+        <v>0.999207880412466</v>
       </c>
       <c r="D23">
-        <v>1.024318799345947</v>
+        <v>1.023293826465539</v>
       </c>
       <c r="E23">
-        <v>1.016689490558233</v>
+        <v>1.016446126756925</v>
       </c>
       <c r="F23">
-        <v>1.027713137019896</v>
+        <v>1.027120831739716</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050897388206656</v>
+        <v>1.05037912872018</v>
       </c>
       <c r="J23">
-        <v>1.030049244725197</v>
+        <v>1.029322799503719</v>
       </c>
       <c r="K23">
-        <v>1.039121389421418</v>
+        <v>1.038115068637844</v>
       </c>
       <c r="L23">
-        <v>1.031632092136233</v>
+        <v>1.031393239607235</v>
       </c>
       <c r="M23">
-        <v>1.04245430336598</v>
+        <v>1.041872678394538</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042172122022271</v>
+        <v>1.04171180577263</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038791062329813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038094073861338</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021974160917773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009225388220844</v>
+        <v>1.00777860684789</v>
       </c>
       <c r="D24">
-        <v>1.03066203792306</v>
+        <v>1.028941035738206</v>
       </c>
       <c r="E24">
-        <v>1.0240390030055</v>
+        <v>1.023140403923371</v>
       </c>
       <c r="F24">
-        <v>1.034311689938099</v>
+        <v>1.033143405047063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053488984769711</v>
+        <v>1.052617500463401</v>
       </c>
       <c r="J24">
-        <v>1.036372881575534</v>
+        <v>1.034980479047091</v>
       </c>
       <c r="K24">
-        <v>1.044171271671735</v>
+        <v>1.042478286518153</v>
       </c>
       <c r="L24">
-        <v>1.037656720510303</v>
+        <v>1.036772979546354</v>
       </c>
       <c r="M24">
-        <v>1.047761905073692</v>
+        <v>1.04661245430834</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046372711090631</v>
+        <v>1.045463004649</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042354069235489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.0411707990112</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023061290552587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01947492976898</v>
+        <v>1.017296969677372</v>
       </c>
       <c r="D25">
-        <v>1.037702576580889</v>
+        <v>1.035230682727246</v>
       </c>
       <c r="E25">
-        <v>1.032207256227022</v>
+        <v>1.030609607694902</v>
       </c>
       <c r="F25">
-        <v>1.041656457733744</v>
+        <v>1.039871182895231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05629754471798</v>
+        <v>1.055043651614173</v>
       </c>
       <c r="J25">
-        <v>1.043364201635138</v>
+        <v>1.041255921490218</v>
       </c>
       <c r="K25">
-        <v>1.049742501835686</v>
+        <v>1.047305641474597</v>
       </c>
       <c r="L25">
-        <v>1.044325353969095</v>
+        <v>1.042750630525865</v>
       </c>
       <c r="M25">
-        <v>1.053640782183313</v>
+        <v>1.051880546341997</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051025396032189</v>
+        <v>1.049632306045032</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046290295583149</v>
+        <v>1.044580749929668</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02425190035459</v>
       </c>
     </row>
   </sheetData>
